--- a/220815함수정리.xlsx
+++ b/220815함수정리.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6202P-08\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6202P-08\Desktop\FuncTest\FuncTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -625,13 +625,71 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
+        <left style="thin">
           <color indexed="64"/>
-        </right>
+        </left>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -745,9 +803,8 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -776,70 +833,13 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1270,10 +1270,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="표5" displayName="표5" ref="C20:D520" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="C20:D520"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Cal" dataDxfId="3">
+    <tableColumn id="1" name="Cal" dataDxfId="9">
       <calculatedColumnFormula>IFERROR(IF($B21=1,$E$15,IF($M$15=FALSE,$C20+((QUOTIENT($B21-1,$I$15)*$F$15)+(QUOTIENT($B21-1,$J$15)*$H$15)),$E$15+((QUOTIENT($B21-1,$I$15)*$F$15)+(QUOTIENT($B21-1,$J$15)*$H$15)))),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Total" dataDxfId="9">
+    <tableColumn id="2" name="Total" dataDxfId="8">
       <calculatedColumnFormula>IF($C21=$A$1,"",(IF(OR($B$15=3,$B$15=10),IF($C21&lt;=$K$15,$K$15,$C21),IF($C21&gt;=$K$15,$K$15,$C21))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1282,13 +1282,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="표5_7" displayName="표5_7" ref="G20:H520" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="표5_7" displayName="표5_7" ref="G20:H520" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="G20:H520"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Cal" dataDxfId="2">
+    <tableColumn id="1" name="Cal" dataDxfId="5">
       <calculatedColumnFormula>IFERROR(IF($F21=1,$E$16,IF($M$16=FALSE,$G20+((QUOTIENT($F21-1,$I$16)*$F$16)+(QUOTIENT($F21-1,$J$16)*$H$16)),$E$16+((QUOTIENT($F21-1,$I$16)*$F$16)+(QUOTIENT($F21-1,$J$16)*$H$16)))),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Total" dataDxfId="6">
+    <tableColumn id="2" name="Total" dataDxfId="4">
       <calculatedColumnFormula>IF($G21=$A$1,"",(IF(OR($B$16=3,$B$16=10),IF($G21&lt;=$K$16,$K$16,$G21),IF($G21&gt;=$K$16,$K$16,$G21))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1297,7 +1297,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="표5_78" displayName="표5_78" ref="K20:L520" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="표5_78" displayName="표5_78" ref="K20:L520" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="K20:L520"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Cal" dataDxfId="1">
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R520"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2357,23 +2357,23 @@
     </row>
     <row r="15" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15" s="17" t="str">
         <f>IFERROR(INDEX($Q$3:$Q$14,MATCH($B$15,$P$3:$P$14,0)),"")</f>
-        <v>Com_Obj_Speed</v>
+        <v>Player_HP</v>
       </c>
       <c r="D15" s="17" t="str">
         <f>IFERROR(INDEX($R$3:$R$14,MATCH($C$15,$Q$3:$Q$14,0)),"")</f>
-        <v>Stage</v>
+        <v>Level</v>
       </c>
       <c r="E15" s="17">
         <f>IFERROR(INDEX($C$4:$N$4,MATCH($C$15,표2[[#Headers],[Com_Obj_Speed]:[Player_GetCoin]],0)),"")</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F15" s="17">
         <f>IFERROR(INDEX($C$5:$N$5,MATCH($C$15,표2[[#Headers],[Com_Obj_Speed]:[Player_GetCoin]],0)),"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="17">
         <f>IFERROR(INDEX($C$6:$N$6,MATCH($C$15,표2[[#Headers],[Com_Obj_Speed]:[Player_GetCoin]],0)),"")</f>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="H15" s="17">
         <f>IFERROR(INDEX($C$7:$N$7,MATCH($C$15,표2[[#Headers],[Com_Obj_Speed]:[Player_GetCoin]],0)),"")</f>
-        <v>1.5</v>
+        <v>20</v>
       </c>
       <c r="I15" s="17">
         <f>IFERROR(INDEX($C$8:$N$8,MATCH($C$15,표2[[#Headers],[Com_Obj_Speed]:[Player_GetCoin]],0)),"")</f>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="K15" s="17">
         <f>IFERROR(INDEX($C$10:$N$10,MATCH($C$15,표2[[#Headers],[Com_Obj_Speed]:[Player_GetCoin]],0)),"")</f>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="L15" s="17">
         <f>IFERROR(INDEX($C$11:$N$11,MATCH($C$15,표2[[#Headers],[Com_Obj_Speed]:[Player_GetCoin]],0)),"")</f>
@@ -2522,7 +2522,7 @@
     <row r="20" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B20" s="23" t="str">
         <f>$D$15</f>
-        <v>Stage</v>
+        <v>Level</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>49</v>
@@ -2557,11 +2557,11 @@
       </c>
       <c r="C21" s="26">
         <f t="shared" ref="C21:C84" si="0">IFERROR(IF($B21=1,$E$15,IF($M$15=FALSE,$C20+((QUOTIENT($B21-1,$I$15)*$F$15)+(QUOTIENT($B21-1,$J$15)*$H$15)),$E$15+((QUOTIENT($B21-1,$I$15)*$F$15)+(QUOTIENT($B21-1,$J$15)*$H$15)))),"")</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D21" s="27">
         <f>IF($C21=$A$1,"",(IF(OR($B$15=3,$B$15=10),IF($C21&lt;=$K$15,$K$15,$C21),IF($C21&gt;=$K$15,$K$15,$C21))))</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F21" s="25">
         <v>1</v>
@@ -2593,11 +2593,11 @@
       </c>
       <c r="C22" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="D22" s="27">
         <f t="shared" ref="D22:D85" si="6">IF($C22=$A$1,"",(IF(OR($B$15=3,$B$15=10),IF($C22&lt;=$K$15,$K$15,$C22),IF($C22&gt;=$K$15,$K$15,$C22))))</f>
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="F22" s="25">
         <f>IF($F$20="AtkUG",IF($F21&gt;=$J$11,"",$F21+1),$F21+1)</f>
@@ -2631,11 +2631,11 @@
       </c>
       <c r="C23" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="D23" s="27">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="F23" s="25">
         <f t="shared" ref="F23:F86" si="7">IF($F$20="AtkUG",IF($F22&gt;=$J$11,"",$F22+1),$F22+1)</f>
@@ -2669,11 +2669,11 @@
       </c>
       <c r="C24" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="D24" s="27">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="F24" s="25">
         <f t="shared" si="7"/>
@@ -2707,11 +2707,11 @@
       </c>
       <c r="C25" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="D25" s="27">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="F25" s="25">
         <f t="shared" si="7"/>
@@ -2745,11 +2745,11 @@
       </c>
       <c r="C26" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="D26" s="27">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="F26" s="25">
         <f t="shared" si="7"/>
@@ -2783,11 +2783,11 @@
       </c>
       <c r="C27" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="D27" s="27">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="F27" s="25">
         <f t="shared" si="7"/>
@@ -2821,11 +2821,11 @@
       </c>
       <c r="C28" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="D28" s="27">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="F28" s="25">
         <f t="shared" si="7"/>
@@ -2859,11 +2859,11 @@
       </c>
       <c r="C29" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="D29" s="27">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="F29" s="25">
         <f t="shared" si="7"/>
@@ -2897,11 +2897,11 @@
       </c>
       <c r="C30" s="26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="D30" s="27">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="F30" s="25">
         <f t="shared" si="7"/>
@@ -2935,11 +2935,11 @@
       </c>
       <c r="C31" s="26">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>150</v>
       </c>
       <c r="D31" s="27">
         <f t="shared" si="6"/>
-        <v>6.5</v>
+        <v>150</v>
       </c>
       <c r="F31" s="25">
         <f t="shared" si="7"/>
@@ -2973,11 +2973,11 @@
       </c>
       <c r="C32" s="26">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>153</v>
       </c>
       <c r="D32" s="27">
         <f t="shared" si="6"/>
-        <v>6.5</v>
+        <v>153</v>
       </c>
       <c r="F32" s="25">
         <f t="shared" si="7"/>
@@ -3011,11 +3011,11 @@
       </c>
       <c r="C33" s="26">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>156</v>
       </c>
       <c r="D33" s="27">
         <f t="shared" si="6"/>
-        <v>6.5</v>
+        <v>156</v>
       </c>
       <c r="F33" s="25">
         <f t="shared" si="7"/>
@@ -3049,11 +3049,11 @@
       </c>
       <c r="C34" s="26">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>159</v>
       </c>
       <c r="D34" s="27">
         <f t="shared" si="6"/>
-        <v>6.5</v>
+        <v>159</v>
       </c>
       <c r="F34" s="25">
         <f t="shared" si="7"/>
@@ -3087,11 +3087,11 @@
       </c>
       <c r="C35" s="26">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>162</v>
       </c>
       <c r="D35" s="27">
         <f t="shared" si="6"/>
-        <v>6.5</v>
+        <v>162</v>
       </c>
       <c r="F35" s="25">
         <f t="shared" si="7"/>
@@ -3125,11 +3125,11 @@
       </c>
       <c r="C36" s="26">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>165</v>
       </c>
       <c r="D36" s="27">
         <f t="shared" si="6"/>
-        <v>6.5</v>
+        <v>165</v>
       </c>
       <c r="F36" s="25">
         <f t="shared" si="7"/>
@@ -3163,11 +3163,11 @@
       </c>
       <c r="C37" s="26">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>168</v>
       </c>
       <c r="D37" s="27">
         <f t="shared" si="6"/>
-        <v>6.5</v>
+        <v>168</v>
       </c>
       <c r="F37" s="25">
         <f t="shared" si="7"/>
@@ -3201,11 +3201,11 @@
       </c>
       <c r="C38" s="26">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>171</v>
       </c>
       <c r="D38" s="27">
         <f t="shared" si="6"/>
-        <v>6.5</v>
+        <v>171</v>
       </c>
       <c r="F38" s="25">
         <f t="shared" si="7"/>
@@ -3239,11 +3239,11 @@
       </c>
       <c r="C39" s="26">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>174</v>
       </c>
       <c r="D39" s="27">
         <f t="shared" si="6"/>
-        <v>6.5</v>
+        <v>174</v>
       </c>
       <c r="F39" s="25">
         <f t="shared" si="7"/>
@@ -3277,11 +3277,11 @@
       </c>
       <c r="C40" s="26">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>177</v>
       </c>
       <c r="D40" s="27">
         <f t="shared" si="6"/>
-        <v>6.5</v>
+        <v>177</v>
       </c>
       <c r="F40" s="25">
         <f t="shared" si="7"/>
@@ -3315,11 +3315,11 @@
       </c>
       <c r="C41" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="D41" s="27">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="F41" s="25">
         <f t="shared" si="7"/>
@@ -3353,11 +3353,11 @@
       </c>
       <c r="C42" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="D42" s="27">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="F42" s="25">
         <f t="shared" si="7"/>
@@ -3391,11 +3391,11 @@
       </c>
       <c r="C43" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="D43" s="27">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="F43" s="25">
         <f t="shared" si="7"/>
@@ -3429,11 +3429,11 @@
       </c>
       <c r="C44" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="D44" s="27">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="F44" s="25">
         <f t="shared" si="7"/>
@@ -3467,11 +3467,11 @@
       </c>
       <c r="C45" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>212</v>
       </c>
       <c r="D45" s="27">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>212</v>
       </c>
       <c r="F45" s="25">
         <f t="shared" si="7"/>
@@ -3505,11 +3505,11 @@
       </c>
       <c r="C46" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>215</v>
       </c>
       <c r="D46" s="27">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>215</v>
       </c>
       <c r="F46" s="25">
         <f t="shared" si="7"/>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="C47" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="D47" s="27">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="F47" s="25">
         <f t="shared" si="7"/>
@@ -3581,11 +3581,11 @@
       </c>
       <c r="C48" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="D48" s="27">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="F48" s="25">
         <f t="shared" si="7"/>
@@ -3619,11 +3619,11 @@
       </c>
       <c r="C49" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>224</v>
       </c>
       <c r="D49" s="27">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>224</v>
       </c>
       <c r="F49" s="25">
         <f t="shared" si="7"/>
@@ -3657,11 +3657,11 @@
       </c>
       <c r="C50" s="26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="D50" s="27">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="F50" s="25">
         <f t="shared" si="7"/>
@@ -3695,11 +3695,11 @@
       </c>
       <c r="C51" s="26">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>250</v>
       </c>
       <c r="D51" s="27">
         <f t="shared" si="6"/>
-        <v>9.5</v>
+        <v>250</v>
       </c>
       <c r="F51" s="25">
         <f t="shared" si="7"/>
@@ -3733,11 +3733,11 @@
       </c>
       <c r="C52" s="26">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>253</v>
       </c>
       <c r="D52" s="27">
         <f t="shared" si="6"/>
-        <v>9.5</v>
+        <v>253</v>
       </c>
       <c r="F52" s="25">
         <f t="shared" si="7"/>
@@ -3771,11 +3771,11 @@
       </c>
       <c r="C53" s="26">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>256</v>
       </c>
       <c r="D53" s="27">
         <f t="shared" si="6"/>
-        <v>9.5</v>
+        <v>256</v>
       </c>
       <c r="F53" s="25">
         <f t="shared" si="7"/>
@@ -3809,11 +3809,11 @@
       </c>
       <c r="C54" s="26">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>259</v>
       </c>
       <c r="D54" s="27">
         <f t="shared" si="6"/>
-        <v>9.5</v>
+        <v>259</v>
       </c>
       <c r="F54" s="25">
         <f t="shared" si="7"/>
@@ -3847,11 +3847,11 @@
       </c>
       <c r="C55" s="26">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>262</v>
       </c>
       <c r="D55" s="27">
         <f t="shared" si="6"/>
-        <v>9.5</v>
+        <v>262</v>
       </c>
       <c r="F55" s="25">
         <f t="shared" si="7"/>
@@ -3885,11 +3885,11 @@
       </c>
       <c r="C56" s="26">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>265</v>
       </c>
       <c r="D56" s="27">
         <f t="shared" si="6"/>
-        <v>9.5</v>
+        <v>265</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="7"/>
@@ -3923,11 +3923,11 @@
       </c>
       <c r="C57" s="26">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>268</v>
       </c>
       <c r="D57" s="27">
         <f t="shared" si="6"/>
-        <v>9.5</v>
+        <v>268</v>
       </c>
       <c r="F57" s="25">
         <f t="shared" si="7"/>
@@ -3961,11 +3961,11 @@
       </c>
       <c r="C58" s="26">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>271</v>
       </c>
       <c r="D58" s="27">
         <f t="shared" si="6"/>
-        <v>9.5</v>
+        <v>271</v>
       </c>
       <c r="F58" s="25">
         <f t="shared" si="7"/>
@@ -3999,11 +3999,11 @@
       </c>
       <c r="C59" s="26">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>274</v>
       </c>
       <c r="D59" s="27">
         <f t="shared" si="6"/>
-        <v>9.5</v>
+        <v>274</v>
       </c>
       <c r="F59" s="25">
         <f t="shared" si="7"/>
@@ -4037,11 +4037,11 @@
       </c>
       <c r="C60" s="26">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>277</v>
       </c>
       <c r="D60" s="27">
         <f t="shared" si="6"/>
-        <v>9.5</v>
+        <v>277</v>
       </c>
       <c r="F60" s="25">
         <f t="shared" si="7"/>
@@ -4075,11 +4075,11 @@
       </c>
       <c r="C61" s="26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="D61" s="27">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="F61" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4113,11 +4113,11 @@
       </c>
       <c r="C62" s="26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>303</v>
       </c>
       <c r="D62" s="27">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>303</v>
       </c>
       <c r="F62" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4151,11 +4151,11 @@
       </c>
       <c r="C63" s="26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="D63" s="27">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="F63" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4189,11 +4189,11 @@
       </c>
       <c r="C64" s="26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="D64" s="27">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="F64" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4227,11 +4227,11 @@
       </c>
       <c r="C65" s="26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>312</v>
       </c>
       <c r="D65" s="27">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>312</v>
       </c>
       <c r="F65" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4265,11 +4265,11 @@
       </c>
       <c r="C66" s="26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>315</v>
       </c>
       <c r="D66" s="27">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>315</v>
       </c>
       <c r="F66" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4303,11 +4303,11 @@
       </c>
       <c r="C67" s="26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="D67" s="27">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="F67" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4341,11 +4341,11 @@
       </c>
       <c r="C68" s="26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>321</v>
       </c>
       <c r="D68" s="27">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>321</v>
       </c>
       <c r="F68" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4379,11 +4379,11 @@
       </c>
       <c r="C69" s="26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>324</v>
       </c>
       <c r="D69" s="27">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>324</v>
       </c>
       <c r="F69" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4417,11 +4417,11 @@
       </c>
       <c r="C70" s="26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>327</v>
       </c>
       <c r="D70" s="27">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>327</v>
       </c>
       <c r="F70" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4455,11 +4455,11 @@
       </c>
       <c r="C71" s="26">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>350</v>
       </c>
       <c r="D71" s="27">
         <f t="shared" si="6"/>
-        <v>12.5</v>
+        <v>350</v>
       </c>
       <c r="F71" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4493,11 +4493,11 @@
       </c>
       <c r="C72" s="26">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>353</v>
       </c>
       <c r="D72" s="27">
         <f t="shared" si="6"/>
-        <v>12.5</v>
+        <v>353</v>
       </c>
       <c r="F72" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4531,11 +4531,11 @@
       </c>
       <c r="C73" s="26">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>356</v>
       </c>
       <c r="D73" s="27">
         <f t="shared" si="6"/>
-        <v>12.5</v>
+        <v>356</v>
       </c>
       <c r="F73" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4569,11 +4569,11 @@
       </c>
       <c r="C74" s="26">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>359</v>
       </c>
       <c r="D74" s="27">
         <f t="shared" si="6"/>
-        <v>12.5</v>
+        <v>359</v>
       </c>
       <c r="F74" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4607,11 +4607,11 @@
       </c>
       <c r="C75" s="26">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>362</v>
       </c>
       <c r="D75" s="27">
         <f t="shared" si="6"/>
-        <v>12.5</v>
+        <v>362</v>
       </c>
       <c r="F75" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4645,11 +4645,11 @@
       </c>
       <c r="C76" s="26">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>365</v>
       </c>
       <c r="D76" s="27">
         <f t="shared" si="6"/>
-        <v>12.5</v>
+        <v>365</v>
       </c>
       <c r="F76" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4683,11 +4683,11 @@
       </c>
       <c r="C77" s="26">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>368</v>
       </c>
       <c r="D77" s="27">
         <f t="shared" si="6"/>
-        <v>12.5</v>
+        <v>368</v>
       </c>
       <c r="F77" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4721,11 +4721,11 @@
       </c>
       <c r="C78" s="26">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>371</v>
       </c>
       <c r="D78" s="27">
         <f t="shared" si="6"/>
-        <v>12.5</v>
+        <v>371</v>
       </c>
       <c r="F78" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4759,11 +4759,11 @@
       </c>
       <c r="C79" s="26">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>374</v>
       </c>
       <c r="D79" s="27">
         <f t="shared" si="6"/>
-        <v>12.5</v>
+        <v>374</v>
       </c>
       <c r="F79" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4797,11 +4797,11 @@
       </c>
       <c r="C80" s="26">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>377</v>
       </c>
       <c r="D80" s="27">
         <f t="shared" si="6"/>
-        <v>12.5</v>
+        <v>377</v>
       </c>
       <c r="F80" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4835,11 +4835,11 @@
       </c>
       <c r="C81" s="26">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>400</v>
       </c>
       <c r="D81" s="27">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>400</v>
       </c>
       <c r="F81" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4873,11 +4873,11 @@
       </c>
       <c r="C82" s="26">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>403</v>
       </c>
       <c r="D82" s="27">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>403</v>
       </c>
       <c r="F82" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="C83" s="26">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>406</v>
       </c>
       <c r="D83" s="27">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>406</v>
       </c>
       <c r="F83" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4949,11 +4949,11 @@
       </c>
       <c r="C84" s="26">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>409</v>
       </c>
       <c r="D84" s="27">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>409</v>
       </c>
       <c r="F84" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4987,11 +4987,11 @@
       </c>
       <c r="C85" s="26">
         <f t="shared" ref="C85:C148" si="9">IFERROR(IF($B85=1,$E$15,IF($M$15=FALSE,$C84+((QUOTIENT($B85-1,$I$15)*$F$15)+(QUOTIENT($B85-1,$J$15)*$H$15)),$E$15+((QUOTIENT($B85-1,$I$15)*$F$15)+(QUOTIENT($B85-1,$J$15)*$H$15)))),"")</f>
-        <v>14</v>
+        <v>412</v>
       </c>
       <c r="D85" s="27">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>412</v>
       </c>
       <c r="F85" s="25" t="str">
         <f t="shared" si="7"/>
@@ -5025,11 +5025,11 @@
       </c>
       <c r="C86" s="26">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>415</v>
       </c>
       <c r="D86" s="27">
         <f t="shared" ref="D86:D149" si="15">IF($C86=$A$1,"",(IF(OR($B$15=3,$B$15=10),IF($C86&lt;=$K$15,$K$15,$C86),IF($C86&gt;=$K$15,$K$15,$C86))))</f>
-        <v>14</v>
+        <v>415</v>
       </c>
       <c r="F86" s="25" t="str">
         <f t="shared" si="7"/>
@@ -5063,11 +5063,11 @@
       </c>
       <c r="C87" s="26">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>418</v>
       </c>
       <c r="D87" s="27">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>418</v>
       </c>
       <c r="F87" s="25" t="str">
         <f t="shared" ref="F87:F150" si="16">IF($F$20="AtkUG",IF($F86&gt;=$J$11,"",$F86+1),$F86+1)</f>
@@ -5101,11 +5101,11 @@
       </c>
       <c r="C88" s="26">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>421</v>
       </c>
       <c r="D88" s="27">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>421</v>
       </c>
       <c r="F88" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5139,11 +5139,11 @@
       </c>
       <c r="C89" s="26">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>424</v>
       </c>
       <c r="D89" s="27">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>424</v>
       </c>
       <c r="F89" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5177,11 +5177,11 @@
       </c>
       <c r="C90" s="26">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>427</v>
       </c>
       <c r="D90" s="27">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>427</v>
       </c>
       <c r="F90" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5215,11 +5215,11 @@
       </c>
       <c r="C91" s="26">
         <f t="shared" si="9"/>
-        <v>15.5</v>
+        <v>450</v>
       </c>
       <c r="D91" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>450</v>
       </c>
       <c r="F91" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5253,11 +5253,11 @@
       </c>
       <c r="C92" s="26">
         <f t="shared" si="9"/>
-        <v>15.5</v>
+        <v>453</v>
       </c>
       <c r="D92" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>453</v>
       </c>
       <c r="F92" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5291,11 +5291,11 @@
       </c>
       <c r="C93" s="26">
         <f t="shared" si="9"/>
-        <v>15.5</v>
+        <v>456</v>
       </c>
       <c r="D93" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>456</v>
       </c>
       <c r="F93" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5329,11 +5329,11 @@
       </c>
       <c r="C94" s="26">
         <f t="shared" si="9"/>
-        <v>15.5</v>
+        <v>459</v>
       </c>
       <c r="D94" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>459</v>
       </c>
       <c r="F94" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5367,11 +5367,11 @@
       </c>
       <c r="C95" s="26">
         <f t="shared" si="9"/>
-        <v>15.5</v>
+        <v>462</v>
       </c>
       <c r="D95" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>462</v>
       </c>
       <c r="F95" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5405,11 +5405,11 @@
       </c>
       <c r="C96" s="26">
         <f t="shared" si="9"/>
-        <v>15.5</v>
+        <v>465</v>
       </c>
       <c r="D96" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>465</v>
       </c>
       <c r="F96" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5443,11 +5443,11 @@
       </c>
       <c r="C97" s="26">
         <f t="shared" si="9"/>
-        <v>15.5</v>
+        <v>468</v>
       </c>
       <c r="D97" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>468</v>
       </c>
       <c r="F97" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5481,11 +5481,11 @@
       </c>
       <c r="C98" s="26">
         <f t="shared" si="9"/>
-        <v>15.5</v>
+        <v>471</v>
       </c>
       <c r="D98" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>471</v>
       </c>
       <c r="F98" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5519,11 +5519,11 @@
       </c>
       <c r="C99" s="26">
         <f t="shared" si="9"/>
-        <v>15.5</v>
+        <v>474</v>
       </c>
       <c r="D99" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>474</v>
       </c>
       <c r="F99" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5557,11 +5557,11 @@
       </c>
       <c r="C100" s="26">
         <f t="shared" si="9"/>
-        <v>15.5</v>
+        <v>477</v>
       </c>
       <c r="D100" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>477</v>
       </c>
       <c r="F100" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5595,11 +5595,11 @@
       </c>
       <c r="C101" s="26">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>500</v>
       </c>
       <c r="D101" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="F101" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5633,11 +5633,11 @@
       </c>
       <c r="C102" s="26">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>503</v>
       </c>
       <c r="D102" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>503</v>
       </c>
       <c r="F102" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5671,11 +5671,11 @@
       </c>
       <c r="C103" s="26">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>506</v>
       </c>
       <c r="D103" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>506</v>
       </c>
       <c r="F103" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5709,11 +5709,11 @@
       </c>
       <c r="C104" s="26">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>509</v>
       </c>
       <c r="D104" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>509</v>
       </c>
       <c r="F104" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5747,11 +5747,11 @@
       </c>
       <c r="C105" s="26">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>512</v>
       </c>
       <c r="D105" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>512</v>
       </c>
       <c r="F105" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5785,11 +5785,11 @@
       </c>
       <c r="C106" s="26">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>515</v>
       </c>
       <c r="D106" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="F106" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5823,11 +5823,11 @@
       </c>
       <c r="C107" s="26">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>518</v>
       </c>
       <c r="D107" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>518</v>
       </c>
       <c r="F107" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5861,11 +5861,11 @@
       </c>
       <c r="C108" s="26">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>521</v>
       </c>
       <c r="D108" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>521</v>
       </c>
       <c r="F108" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5899,11 +5899,11 @@
       </c>
       <c r="C109" s="26">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>524</v>
       </c>
       <c r="D109" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>524</v>
       </c>
       <c r="F109" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5937,11 +5937,11 @@
       </c>
       <c r="C110" s="26">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>527</v>
       </c>
       <c r="D110" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>527</v>
       </c>
       <c r="F110" s="25" t="str">
         <f t="shared" si="16"/>
@@ -5975,11 +5975,11 @@
       </c>
       <c r="C111" s="26">
         <f t="shared" si="9"/>
-        <v>18.5</v>
+        <v>550</v>
       </c>
       <c r="D111" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>550</v>
       </c>
       <c r="F111" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6013,11 +6013,11 @@
       </c>
       <c r="C112" s="26">
         <f t="shared" si="9"/>
-        <v>18.5</v>
+        <v>553</v>
       </c>
       <c r="D112" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>553</v>
       </c>
       <c r="F112" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6051,11 +6051,11 @@
       </c>
       <c r="C113" s="26">
         <f t="shared" si="9"/>
-        <v>18.5</v>
+        <v>556</v>
       </c>
       <c r="D113" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>556</v>
       </c>
       <c r="F113" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6089,11 +6089,11 @@
       </c>
       <c r="C114" s="26">
         <f t="shared" si="9"/>
-        <v>18.5</v>
+        <v>559</v>
       </c>
       <c r="D114" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>559</v>
       </c>
       <c r="F114" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6127,11 +6127,11 @@
       </c>
       <c r="C115" s="26">
         <f t="shared" si="9"/>
-        <v>18.5</v>
+        <v>562</v>
       </c>
       <c r="D115" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>562</v>
       </c>
       <c r="F115" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6165,11 +6165,11 @@
       </c>
       <c r="C116" s="26">
         <f t="shared" si="9"/>
-        <v>18.5</v>
+        <v>565</v>
       </c>
       <c r="D116" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>565</v>
       </c>
       <c r="F116" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6203,11 +6203,11 @@
       </c>
       <c r="C117" s="26">
         <f t="shared" si="9"/>
-        <v>18.5</v>
+        <v>568</v>
       </c>
       <c r="D117" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>568</v>
       </c>
       <c r="F117" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6241,11 +6241,11 @@
       </c>
       <c r="C118" s="26">
         <f t="shared" si="9"/>
-        <v>18.5</v>
+        <v>571</v>
       </c>
       <c r="D118" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>571</v>
       </c>
       <c r="F118" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="C119" s="26">
         <f t="shared" si="9"/>
-        <v>18.5</v>
+        <v>574</v>
       </c>
       <c r="D119" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="F119" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6317,11 +6317,11 @@
       </c>
       <c r="C120" s="26">
         <f t="shared" si="9"/>
-        <v>18.5</v>
+        <v>577</v>
       </c>
       <c r="D120" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>577</v>
       </c>
       <c r="F120" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6355,11 +6355,11 @@
       </c>
       <c r="C121" s="26">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="D121" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="F121" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6393,11 +6393,11 @@
       </c>
       <c r="C122" s="26">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>603</v>
       </c>
       <c r="D122" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>603</v>
       </c>
       <c r="F122" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6431,11 +6431,11 @@
       </c>
       <c r="C123" s="26">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="D123" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>606</v>
       </c>
       <c r="F123" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6469,11 +6469,11 @@
       </c>
       <c r="C124" s="26">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>609</v>
       </c>
       <c r="D124" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>609</v>
       </c>
       <c r="F124" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6507,11 +6507,11 @@
       </c>
       <c r="C125" s="26">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>612</v>
       </c>
       <c r="D125" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>612</v>
       </c>
       <c r="F125" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6545,11 +6545,11 @@
       </c>
       <c r="C126" s="26">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>615</v>
       </c>
       <c r="D126" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>615</v>
       </c>
       <c r="F126" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6583,11 +6583,11 @@
       </c>
       <c r="C127" s="26">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>618</v>
       </c>
       <c r="D127" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>618</v>
       </c>
       <c r="F127" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6621,11 +6621,11 @@
       </c>
       <c r="C128" s="26">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>621</v>
       </c>
       <c r="D128" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>621</v>
       </c>
       <c r="F128" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6659,11 +6659,11 @@
       </c>
       <c r="C129" s="26">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>624</v>
       </c>
       <c r="D129" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>624</v>
       </c>
       <c r="F129" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6697,11 +6697,11 @@
       </c>
       <c r="C130" s="26">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>627</v>
       </c>
       <c r="D130" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>627</v>
       </c>
       <c r="F130" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6735,11 +6735,11 @@
       </c>
       <c r="C131" s="26">
         <f t="shared" si="9"/>
-        <v>21.5</v>
+        <v>650</v>
       </c>
       <c r="D131" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>650</v>
       </c>
       <c r="F131" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6773,11 +6773,11 @@
       </c>
       <c r="C132" s="26">
         <f t="shared" si="9"/>
-        <v>21.5</v>
+        <v>653</v>
       </c>
       <c r="D132" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>653</v>
       </c>
       <c r="F132" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6811,11 +6811,11 @@
       </c>
       <c r="C133" s="26">
         <f t="shared" si="9"/>
-        <v>21.5</v>
+        <v>656</v>
       </c>
       <c r="D133" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>656</v>
       </c>
       <c r="F133" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6849,11 +6849,11 @@
       </c>
       <c r="C134" s="26">
         <f t="shared" si="9"/>
-        <v>21.5</v>
+        <v>659</v>
       </c>
       <c r="D134" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>659</v>
       </c>
       <c r="F134" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6887,11 +6887,11 @@
       </c>
       <c r="C135" s="26">
         <f t="shared" si="9"/>
-        <v>21.5</v>
+        <v>662</v>
       </c>
       <c r="D135" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>662</v>
       </c>
       <c r="F135" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6925,11 +6925,11 @@
       </c>
       <c r="C136" s="26">
         <f t="shared" si="9"/>
-        <v>21.5</v>
+        <v>665</v>
       </c>
       <c r="D136" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>665</v>
       </c>
       <c r="F136" s="25" t="str">
         <f t="shared" si="16"/>
@@ -6963,11 +6963,11 @@
       </c>
       <c r="C137" s="26">
         <f t="shared" si="9"/>
-        <v>21.5</v>
+        <v>668</v>
       </c>
       <c r="D137" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>668</v>
       </c>
       <c r="F137" s="25" t="str">
         <f t="shared" si="16"/>
@@ -7001,11 +7001,11 @@
       </c>
       <c r="C138" s="26">
         <f t="shared" si="9"/>
-        <v>21.5</v>
+        <v>671</v>
       </c>
       <c r="D138" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>671</v>
       </c>
       <c r="F138" s="25" t="str">
         <f t="shared" si="16"/>
@@ -7039,11 +7039,11 @@
       </c>
       <c r="C139" s="26">
         <f t="shared" si="9"/>
-        <v>21.5</v>
+        <v>674</v>
       </c>
       <c r="D139" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>674</v>
       </c>
       <c r="F139" s="25" t="str">
         <f t="shared" si="16"/>
@@ -7077,11 +7077,11 @@
       </c>
       <c r="C140" s="26">
         <f t="shared" si="9"/>
-        <v>21.5</v>
+        <v>677</v>
       </c>
       <c r="D140" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>677</v>
       </c>
       <c r="F140" s="25" t="str">
         <f t="shared" si="16"/>
@@ -7115,11 +7115,11 @@
       </c>
       <c r="C141" s="26">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>700</v>
       </c>
       <c r="D141" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>700</v>
       </c>
       <c r="F141" s="25" t="str">
         <f t="shared" si="16"/>
@@ -7153,11 +7153,11 @@
       </c>
       <c r="C142" s="26">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>703</v>
       </c>
       <c r="D142" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>703</v>
       </c>
       <c r="F142" s="25" t="str">
         <f t="shared" si="16"/>
@@ -7191,11 +7191,11 @@
       </c>
       <c r="C143" s="26">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>706</v>
       </c>
       <c r="D143" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>706</v>
       </c>
       <c r="F143" s="25" t="str">
         <f t="shared" si="16"/>
@@ -7229,11 +7229,11 @@
       </c>
       <c r="C144" s="26">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>709</v>
       </c>
       <c r="D144" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>709</v>
       </c>
       <c r="F144" s="25" t="str">
         <f t="shared" si="16"/>
@@ -7267,11 +7267,11 @@
       </c>
       <c r="C145" s="26">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>712</v>
       </c>
       <c r="D145" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>712</v>
       </c>
       <c r="F145" s="25" t="str">
         <f t="shared" si="16"/>
@@ -7305,11 +7305,11 @@
       </c>
       <c r="C146" s="26">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>715</v>
       </c>
       <c r="D146" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>715</v>
       </c>
       <c r="F146" s="25" t="str">
         <f t="shared" si="16"/>
@@ -7343,11 +7343,11 @@
       </c>
       <c r="C147" s="26">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>718</v>
       </c>
       <c r="D147" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>718</v>
       </c>
       <c r="F147" s="25" t="str">
         <f t="shared" si="16"/>
@@ -7381,11 +7381,11 @@
       </c>
       <c r="C148" s="26">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>721</v>
       </c>
       <c r="D148" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>721</v>
       </c>
       <c r="F148" s="25" t="str">
         <f t="shared" si="16"/>
@@ -7419,11 +7419,11 @@
       </c>
       <c r="C149" s="26">
         <f t="shared" ref="C149:C212" si="18">IFERROR(IF($B149=1,$E$15,IF($M$15=FALSE,$C148+((QUOTIENT($B149-1,$I$15)*$F$15)+(QUOTIENT($B149-1,$J$15)*$H$15)),$E$15+((QUOTIENT($B149-1,$I$15)*$F$15)+(QUOTIENT($B149-1,$J$15)*$H$15)))),"")</f>
-        <v>23</v>
+        <v>724</v>
       </c>
       <c r="D149" s="27">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>724</v>
       </c>
       <c r="F149" s="25" t="str">
         <f t="shared" si="16"/>
@@ -7457,11 +7457,11 @@
       </c>
       <c r="C150" s="26">
         <f t="shared" si="18"/>
-        <v>23</v>
+        <v>727</v>
       </c>
       <c r="D150" s="27">
         <f t="shared" ref="D150:D213" si="24">IF($C150=$A$1,"",(IF(OR($B$15=3,$B$15=10),IF($C150&lt;=$K$15,$K$15,$C150),IF($C150&gt;=$K$15,$K$15,$C150))))</f>
-        <v>15</v>
+        <v>727</v>
       </c>
       <c r="F150" s="25" t="str">
         <f t="shared" si="16"/>
@@ -7495,11 +7495,11 @@
       </c>
       <c r="C151" s="26">
         <f t="shared" si="18"/>
-        <v>24.5</v>
+        <v>750</v>
       </c>
       <c r="D151" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>750</v>
       </c>
       <c r="F151" s="25" t="str">
         <f t="shared" ref="F151:F214" si="25">IF($F$20="AtkUG",IF($F150&gt;=$J$11,"",$F150+1),$F150+1)</f>
@@ -7533,11 +7533,11 @@
       </c>
       <c r="C152" s="26">
         <f t="shared" si="18"/>
-        <v>24.5</v>
+        <v>753</v>
       </c>
       <c r="D152" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>753</v>
       </c>
       <c r="F152" s="25" t="str">
         <f t="shared" si="25"/>
@@ -7571,11 +7571,11 @@
       </c>
       <c r="C153" s="26">
         <f t="shared" si="18"/>
-        <v>24.5</v>
+        <v>756</v>
       </c>
       <c r="D153" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>756</v>
       </c>
       <c r="F153" s="25" t="str">
         <f t="shared" si="25"/>
@@ -7609,11 +7609,11 @@
       </c>
       <c r="C154" s="26">
         <f t="shared" si="18"/>
-        <v>24.5</v>
+        <v>759</v>
       </c>
       <c r="D154" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>759</v>
       </c>
       <c r="F154" s="25" t="str">
         <f t="shared" si="25"/>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="C155" s="26">
         <f t="shared" si="18"/>
-        <v>24.5</v>
+        <v>762</v>
       </c>
       <c r="D155" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>762</v>
       </c>
       <c r="F155" s="25" t="str">
         <f t="shared" si="25"/>
@@ -7685,11 +7685,11 @@
       </c>
       <c r="C156" s="26">
         <f t="shared" si="18"/>
-        <v>24.5</v>
+        <v>765</v>
       </c>
       <c r="D156" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>765</v>
       </c>
       <c r="F156" s="25" t="str">
         <f t="shared" si="25"/>
@@ -7723,11 +7723,11 @@
       </c>
       <c r="C157" s="26">
         <f t="shared" si="18"/>
-        <v>24.5</v>
+        <v>768</v>
       </c>
       <c r="D157" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>768</v>
       </c>
       <c r="F157" s="25" t="str">
         <f t="shared" si="25"/>
@@ -7761,11 +7761,11 @@
       </c>
       <c r="C158" s="26">
         <f t="shared" si="18"/>
-        <v>24.5</v>
+        <v>771</v>
       </c>
       <c r="D158" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>771</v>
       </c>
       <c r="F158" s="25" t="str">
         <f t="shared" si="25"/>
@@ -7799,11 +7799,11 @@
       </c>
       <c r="C159" s="26">
         <f t="shared" si="18"/>
-        <v>24.5</v>
+        <v>774</v>
       </c>
       <c r="D159" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>774</v>
       </c>
       <c r="F159" s="25" t="str">
         <f t="shared" si="25"/>
@@ -7837,11 +7837,11 @@
       </c>
       <c r="C160" s="26">
         <f t="shared" si="18"/>
-        <v>24.5</v>
+        <v>777</v>
       </c>
       <c r="D160" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>777</v>
       </c>
       <c r="F160" s="25" t="str">
         <f t="shared" si="25"/>
@@ -7875,11 +7875,11 @@
       </c>
       <c r="C161" s="26">
         <f t="shared" si="18"/>
-        <v>26</v>
+        <v>800</v>
       </c>
       <c r="D161" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>800</v>
       </c>
       <c r="F161" s="25" t="str">
         <f t="shared" si="25"/>
@@ -7913,11 +7913,11 @@
       </c>
       <c r="C162" s="26">
         <f t="shared" si="18"/>
-        <v>26</v>
+        <v>803</v>
       </c>
       <c r="D162" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>803</v>
       </c>
       <c r="F162" s="25" t="str">
         <f t="shared" si="25"/>
@@ -7951,11 +7951,11 @@
       </c>
       <c r="C163" s="26">
         <f t="shared" si="18"/>
-        <v>26</v>
+        <v>806</v>
       </c>
       <c r="D163" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>806</v>
       </c>
       <c r="F163" s="25" t="str">
         <f t="shared" si="25"/>
@@ -7989,11 +7989,11 @@
       </c>
       <c r="C164" s="26">
         <f t="shared" si="18"/>
-        <v>26</v>
+        <v>809</v>
       </c>
       <c r="D164" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>809</v>
       </c>
       <c r="F164" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8027,11 +8027,11 @@
       </c>
       <c r="C165" s="26">
         <f t="shared" si="18"/>
-        <v>26</v>
+        <v>812</v>
       </c>
       <c r="D165" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>812</v>
       </c>
       <c r="F165" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8065,11 +8065,11 @@
       </c>
       <c r="C166" s="26">
         <f t="shared" si="18"/>
-        <v>26</v>
+        <v>815</v>
       </c>
       <c r="D166" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>815</v>
       </c>
       <c r="F166" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8103,11 +8103,11 @@
       </c>
       <c r="C167" s="26">
         <f t="shared" si="18"/>
-        <v>26</v>
+        <v>818</v>
       </c>
       <c r="D167" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>818</v>
       </c>
       <c r="F167" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8141,11 +8141,11 @@
       </c>
       <c r="C168" s="26">
         <f t="shared" si="18"/>
-        <v>26</v>
+        <v>821</v>
       </c>
       <c r="D168" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>821</v>
       </c>
       <c r="F168" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8179,11 +8179,11 @@
       </c>
       <c r="C169" s="26">
         <f t="shared" si="18"/>
-        <v>26</v>
+        <v>824</v>
       </c>
       <c r="D169" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>824</v>
       </c>
       <c r="F169" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8217,11 +8217,11 @@
       </c>
       <c r="C170" s="26">
         <f t="shared" si="18"/>
-        <v>26</v>
+        <v>827</v>
       </c>
       <c r="D170" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>827</v>
       </c>
       <c r="F170" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8255,11 +8255,11 @@
       </c>
       <c r="C171" s="26">
         <f t="shared" si="18"/>
-        <v>27.5</v>
+        <v>850</v>
       </c>
       <c r="D171" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>850</v>
       </c>
       <c r="F171" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8293,11 +8293,11 @@
       </c>
       <c r="C172" s="26">
         <f t="shared" si="18"/>
-        <v>27.5</v>
+        <v>853</v>
       </c>
       <c r="D172" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>853</v>
       </c>
       <c r="F172" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8331,11 +8331,11 @@
       </c>
       <c r="C173" s="26">
         <f t="shared" si="18"/>
-        <v>27.5</v>
+        <v>856</v>
       </c>
       <c r="D173" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>856</v>
       </c>
       <c r="F173" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8369,11 +8369,11 @@
       </c>
       <c r="C174" s="26">
         <f t="shared" si="18"/>
-        <v>27.5</v>
+        <v>859</v>
       </c>
       <c r="D174" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>859</v>
       </c>
       <c r="F174" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8407,11 +8407,11 @@
       </c>
       <c r="C175" s="26">
         <f t="shared" si="18"/>
-        <v>27.5</v>
+        <v>862</v>
       </c>
       <c r="D175" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>862</v>
       </c>
       <c r="F175" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8445,11 +8445,11 @@
       </c>
       <c r="C176" s="26">
         <f t="shared" si="18"/>
-        <v>27.5</v>
+        <v>865</v>
       </c>
       <c r="D176" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>865</v>
       </c>
       <c r="F176" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8483,11 +8483,11 @@
       </c>
       <c r="C177" s="26">
         <f t="shared" si="18"/>
-        <v>27.5</v>
+        <v>868</v>
       </c>
       <c r="D177" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>868</v>
       </c>
       <c r="F177" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8521,11 +8521,11 @@
       </c>
       <c r="C178" s="26">
         <f t="shared" si="18"/>
-        <v>27.5</v>
+        <v>871</v>
       </c>
       <c r="D178" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>871</v>
       </c>
       <c r="F178" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8559,11 +8559,11 @@
       </c>
       <c r="C179" s="26">
         <f t="shared" si="18"/>
-        <v>27.5</v>
+        <v>874</v>
       </c>
       <c r="D179" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>874</v>
       </c>
       <c r="F179" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8597,11 +8597,11 @@
       </c>
       <c r="C180" s="26">
         <f t="shared" si="18"/>
-        <v>27.5</v>
+        <v>877</v>
       </c>
       <c r="D180" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>877</v>
       </c>
       <c r="F180" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8635,11 +8635,11 @@
       </c>
       <c r="C181" s="26">
         <f t="shared" si="18"/>
-        <v>29</v>
+        <v>900</v>
       </c>
       <c r="D181" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="F181" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8673,11 +8673,11 @@
       </c>
       <c r="C182" s="26">
         <f t="shared" si="18"/>
-        <v>29</v>
+        <v>903</v>
       </c>
       <c r="D182" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>903</v>
       </c>
       <c r="F182" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8711,11 +8711,11 @@
       </c>
       <c r="C183" s="26">
         <f t="shared" si="18"/>
-        <v>29</v>
+        <v>906</v>
       </c>
       <c r="D183" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>906</v>
       </c>
       <c r="F183" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8749,11 +8749,11 @@
       </c>
       <c r="C184" s="26">
         <f t="shared" si="18"/>
-        <v>29</v>
+        <v>909</v>
       </c>
       <c r="D184" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>909</v>
       </c>
       <c r="F184" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8787,11 +8787,11 @@
       </c>
       <c r="C185" s="26">
         <f t="shared" si="18"/>
-        <v>29</v>
+        <v>912</v>
       </c>
       <c r="D185" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>912</v>
       </c>
       <c r="F185" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8825,11 +8825,11 @@
       </c>
       <c r="C186" s="26">
         <f t="shared" si="18"/>
-        <v>29</v>
+        <v>915</v>
       </c>
       <c r="D186" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>915</v>
       </c>
       <c r="F186" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8863,11 +8863,11 @@
       </c>
       <c r="C187" s="26">
         <f t="shared" si="18"/>
-        <v>29</v>
+        <v>918</v>
       </c>
       <c r="D187" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>918</v>
       </c>
       <c r="F187" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8901,11 +8901,11 @@
       </c>
       <c r="C188" s="26">
         <f t="shared" si="18"/>
-        <v>29</v>
+        <v>921</v>
       </c>
       <c r="D188" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>921</v>
       </c>
       <c r="F188" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8939,11 +8939,11 @@
       </c>
       <c r="C189" s="26">
         <f t="shared" si="18"/>
-        <v>29</v>
+        <v>924</v>
       </c>
       <c r="D189" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>924</v>
       </c>
       <c r="F189" s="25" t="str">
         <f t="shared" si="25"/>
@@ -8977,11 +8977,11 @@
       </c>
       <c r="C190" s="26">
         <f t="shared" si="18"/>
-        <v>29</v>
+        <v>927</v>
       </c>
       <c r="D190" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>927</v>
       </c>
       <c r="F190" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="C191" s="26">
         <f t="shared" si="18"/>
-        <v>30.5</v>
+        <v>950</v>
       </c>
       <c r="D191" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>950</v>
       </c>
       <c r="F191" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9053,11 +9053,11 @@
       </c>
       <c r="C192" s="26">
         <f t="shared" si="18"/>
-        <v>30.5</v>
+        <v>953</v>
       </c>
       <c r="D192" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="F192" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9091,11 +9091,11 @@
       </c>
       <c r="C193" s="26">
         <f t="shared" si="18"/>
-        <v>30.5</v>
+        <v>956</v>
       </c>
       <c r="D193" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>956</v>
       </c>
       <c r="F193" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9129,11 +9129,11 @@
       </c>
       <c r="C194" s="26">
         <f t="shared" si="18"/>
-        <v>30.5</v>
+        <v>959</v>
       </c>
       <c r="D194" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>959</v>
       </c>
       <c r="F194" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9167,11 +9167,11 @@
       </c>
       <c r="C195" s="26">
         <f t="shared" si="18"/>
-        <v>30.5</v>
+        <v>962</v>
       </c>
       <c r="D195" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>962</v>
       </c>
       <c r="F195" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9205,11 +9205,11 @@
       </c>
       <c r="C196" s="26">
         <f t="shared" si="18"/>
-        <v>30.5</v>
+        <v>965</v>
       </c>
       <c r="D196" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>965</v>
       </c>
       <c r="F196" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9243,11 +9243,11 @@
       </c>
       <c r="C197" s="26">
         <f t="shared" si="18"/>
-        <v>30.5</v>
+        <v>968</v>
       </c>
       <c r="D197" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>968</v>
       </c>
       <c r="F197" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9281,11 +9281,11 @@
       </c>
       <c r="C198" s="26">
         <f t="shared" si="18"/>
-        <v>30.5</v>
+        <v>971</v>
       </c>
       <c r="D198" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>971</v>
       </c>
       <c r="F198" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9319,11 +9319,11 @@
       </c>
       <c r="C199" s="26">
         <f t="shared" si="18"/>
-        <v>30.5</v>
+        <v>974</v>
       </c>
       <c r="D199" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>974</v>
       </c>
       <c r="F199" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9357,11 +9357,11 @@
       </c>
       <c r="C200" s="26">
         <f t="shared" si="18"/>
-        <v>30.5</v>
+        <v>977</v>
       </c>
       <c r="D200" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>977</v>
       </c>
       <c r="F200" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9395,11 +9395,11 @@
       </c>
       <c r="C201" s="26">
         <f t="shared" si="18"/>
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="D201" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="F201" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9433,11 +9433,11 @@
       </c>
       <c r="C202" s="26">
         <f t="shared" si="18"/>
-        <v>32</v>
+        <v>1003</v>
       </c>
       <c r="D202" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>1003</v>
       </c>
       <c r="F202" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9471,11 +9471,11 @@
       </c>
       <c r="C203" s="26">
         <f t="shared" si="18"/>
-        <v>32</v>
+        <v>1006</v>
       </c>
       <c r="D203" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>1006</v>
       </c>
       <c r="F203" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9509,11 +9509,11 @@
       </c>
       <c r="C204" s="26">
         <f t="shared" si="18"/>
-        <v>32</v>
+        <v>1009</v>
       </c>
       <c r="D204" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>1009</v>
       </c>
       <c r="F204" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9547,11 +9547,11 @@
       </c>
       <c r="C205" s="26">
         <f t="shared" si="18"/>
-        <v>32</v>
+        <v>1012</v>
       </c>
       <c r="D205" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>1012</v>
       </c>
       <c r="F205" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9585,11 +9585,11 @@
       </c>
       <c r="C206" s="26">
         <f t="shared" si="18"/>
-        <v>32</v>
+        <v>1015</v>
       </c>
       <c r="D206" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>1015</v>
       </c>
       <c r="F206" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9623,11 +9623,11 @@
       </c>
       <c r="C207" s="26">
         <f t="shared" si="18"/>
-        <v>32</v>
+        <v>1018</v>
       </c>
       <c r="D207" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>1018</v>
       </c>
       <c r="F207" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9661,11 +9661,11 @@
       </c>
       <c r="C208" s="26">
         <f t="shared" si="18"/>
-        <v>32</v>
+        <v>1021</v>
       </c>
       <c r="D208" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>1021</v>
       </c>
       <c r="F208" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9699,11 +9699,11 @@
       </c>
       <c r="C209" s="26">
         <f t="shared" si="18"/>
-        <v>32</v>
+        <v>1024</v>
       </c>
       <c r="D209" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>1024</v>
       </c>
       <c r="F209" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9737,11 +9737,11 @@
       </c>
       <c r="C210" s="26">
         <f t="shared" si="18"/>
-        <v>32</v>
+        <v>1027</v>
       </c>
       <c r="D210" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>1027</v>
       </c>
       <c r="F210" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9775,11 +9775,11 @@
       </c>
       <c r="C211" s="26">
         <f t="shared" si="18"/>
-        <v>33.5</v>
+        <v>1050</v>
       </c>
       <c r="D211" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>1050</v>
       </c>
       <c r="F211" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9813,11 +9813,11 @@
       </c>
       <c r="C212" s="26">
         <f t="shared" si="18"/>
-        <v>33.5</v>
+        <v>1053</v>
       </c>
       <c r="D212" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>1053</v>
       </c>
       <c r="F212" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9851,11 +9851,11 @@
       </c>
       <c r="C213" s="26">
         <f t="shared" ref="C213:C276" si="27">IFERROR(IF($B213=1,$E$15,IF($M$15=FALSE,$C212+((QUOTIENT($B213-1,$I$15)*$F$15)+(QUOTIENT($B213-1,$J$15)*$H$15)),$E$15+((QUOTIENT($B213-1,$I$15)*$F$15)+(QUOTIENT($B213-1,$J$15)*$H$15)))),"")</f>
-        <v>33.5</v>
+        <v>1056</v>
       </c>
       <c r="D213" s="27">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>1056</v>
       </c>
       <c r="F213" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9889,11 +9889,11 @@
       </c>
       <c r="C214" s="26">
         <f t="shared" si="27"/>
-        <v>33.5</v>
+        <v>1059</v>
       </c>
       <c r="D214" s="27">
         <f t="shared" ref="D214:D277" si="33">IF($C214=$A$1,"",(IF(OR($B$15=3,$B$15=10),IF($C214&lt;=$K$15,$K$15,$C214),IF($C214&gt;=$K$15,$K$15,$C214))))</f>
-        <v>15</v>
+        <v>1059</v>
       </c>
       <c r="F214" s="25" t="str">
         <f t="shared" si="25"/>
@@ -9927,11 +9927,11 @@
       </c>
       <c r="C215" s="26">
         <f t="shared" si="27"/>
-        <v>33.5</v>
+        <v>1062</v>
       </c>
       <c r="D215" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1062</v>
       </c>
       <c r="F215" s="25" t="str">
         <f t="shared" ref="F215:F278" si="34">IF($F$20="AtkUG",IF($F214&gt;=$J$11,"",$F214+1),$F214+1)</f>
@@ -9965,11 +9965,11 @@
       </c>
       <c r="C216" s="26">
         <f t="shared" si="27"/>
-        <v>33.5</v>
+        <v>1065</v>
       </c>
       <c r="D216" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1065</v>
       </c>
       <c r="F216" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10003,11 +10003,11 @@
       </c>
       <c r="C217" s="26">
         <f t="shared" si="27"/>
-        <v>33.5</v>
+        <v>1068</v>
       </c>
       <c r="D217" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1068</v>
       </c>
       <c r="F217" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10041,11 +10041,11 @@
       </c>
       <c r="C218" s="26">
         <f t="shared" si="27"/>
-        <v>33.5</v>
+        <v>1071</v>
       </c>
       <c r="D218" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1071</v>
       </c>
       <c r="F218" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10079,11 +10079,11 @@
       </c>
       <c r="C219" s="26">
         <f t="shared" si="27"/>
-        <v>33.5</v>
+        <v>1074</v>
       </c>
       <c r="D219" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1074</v>
       </c>
       <c r="F219" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10117,11 +10117,11 @@
       </c>
       <c r="C220" s="26">
         <f t="shared" si="27"/>
-        <v>33.5</v>
+        <v>1077</v>
       </c>
       <c r="D220" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1077</v>
       </c>
       <c r="F220" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10155,11 +10155,11 @@
       </c>
       <c r="C221" s="26">
         <f t="shared" si="27"/>
-        <v>35</v>
+        <v>1100</v>
       </c>
       <c r="D221" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1100</v>
       </c>
       <c r="F221" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10193,11 +10193,11 @@
       </c>
       <c r="C222" s="26">
         <f t="shared" si="27"/>
-        <v>35</v>
+        <v>1103</v>
       </c>
       <c r="D222" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1103</v>
       </c>
       <c r="F222" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10231,11 +10231,11 @@
       </c>
       <c r="C223" s="26">
         <f t="shared" si="27"/>
-        <v>35</v>
+        <v>1106</v>
       </c>
       <c r="D223" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1106</v>
       </c>
       <c r="F223" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10269,11 +10269,11 @@
       </c>
       <c r="C224" s="26">
         <f t="shared" si="27"/>
-        <v>35</v>
+        <v>1109</v>
       </c>
       <c r="D224" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1109</v>
       </c>
       <c r="F224" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10307,11 +10307,11 @@
       </c>
       <c r="C225" s="26">
         <f t="shared" si="27"/>
-        <v>35</v>
+        <v>1112</v>
       </c>
       <c r="D225" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1112</v>
       </c>
       <c r="F225" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10345,11 +10345,11 @@
       </c>
       <c r="C226" s="26">
         <f t="shared" si="27"/>
-        <v>35</v>
+        <v>1115</v>
       </c>
       <c r="D226" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1115</v>
       </c>
       <c r="F226" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10383,11 +10383,11 @@
       </c>
       <c r="C227" s="26">
         <f t="shared" si="27"/>
-        <v>35</v>
+        <v>1118</v>
       </c>
       <c r="D227" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1118</v>
       </c>
       <c r="F227" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10421,11 +10421,11 @@
       </c>
       <c r="C228" s="26">
         <f t="shared" si="27"/>
-        <v>35</v>
+        <v>1121</v>
       </c>
       <c r="D228" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1121</v>
       </c>
       <c r="F228" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10459,11 +10459,11 @@
       </c>
       <c r="C229" s="26">
         <f t="shared" si="27"/>
-        <v>35</v>
+        <v>1124</v>
       </c>
       <c r="D229" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1124</v>
       </c>
       <c r="F229" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10497,11 +10497,11 @@
       </c>
       <c r="C230" s="26">
         <f t="shared" si="27"/>
-        <v>35</v>
+        <v>1127</v>
       </c>
       <c r="D230" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1127</v>
       </c>
       <c r="F230" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10535,11 +10535,11 @@
       </c>
       <c r="C231" s="26">
         <f t="shared" si="27"/>
-        <v>36.5</v>
+        <v>1150</v>
       </c>
       <c r="D231" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1150</v>
       </c>
       <c r="F231" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10573,11 +10573,11 @@
       </c>
       <c r="C232" s="26">
         <f t="shared" si="27"/>
-        <v>36.5</v>
+        <v>1153</v>
       </c>
       <c r="D232" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1153</v>
       </c>
       <c r="F232" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10611,11 +10611,11 @@
       </c>
       <c r="C233" s="26">
         <f t="shared" si="27"/>
-        <v>36.5</v>
+        <v>1156</v>
       </c>
       <c r="D233" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1156</v>
       </c>
       <c r="F233" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10649,11 +10649,11 @@
       </c>
       <c r="C234" s="26">
         <f t="shared" si="27"/>
-        <v>36.5</v>
+        <v>1159</v>
       </c>
       <c r="D234" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1159</v>
       </c>
       <c r="F234" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10687,11 +10687,11 @@
       </c>
       <c r="C235" s="26">
         <f t="shared" si="27"/>
-        <v>36.5</v>
+        <v>1162</v>
       </c>
       <c r="D235" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1162</v>
       </c>
       <c r="F235" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10725,11 +10725,11 @@
       </c>
       <c r="C236" s="26">
         <f t="shared" si="27"/>
-        <v>36.5</v>
+        <v>1165</v>
       </c>
       <c r="D236" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1165</v>
       </c>
       <c r="F236" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10763,11 +10763,11 @@
       </c>
       <c r="C237" s="26">
         <f t="shared" si="27"/>
-        <v>36.5</v>
+        <v>1168</v>
       </c>
       <c r="D237" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1168</v>
       </c>
       <c r="F237" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10801,11 +10801,11 @@
       </c>
       <c r="C238" s="26">
         <f t="shared" si="27"/>
-        <v>36.5</v>
+        <v>1171</v>
       </c>
       <c r="D238" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1171</v>
       </c>
       <c r="F238" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10839,11 +10839,11 @@
       </c>
       <c r="C239" s="26">
         <f t="shared" si="27"/>
-        <v>36.5</v>
+        <v>1174</v>
       </c>
       <c r="D239" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1174</v>
       </c>
       <c r="F239" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10877,11 +10877,11 @@
       </c>
       <c r="C240" s="26">
         <f t="shared" si="27"/>
-        <v>36.5</v>
+        <v>1177</v>
       </c>
       <c r="D240" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1177</v>
       </c>
       <c r="F240" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10915,11 +10915,11 @@
       </c>
       <c r="C241" s="26">
         <f t="shared" si="27"/>
-        <v>38</v>
+        <v>1200</v>
       </c>
       <c r="D241" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1200</v>
       </c>
       <c r="F241" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10953,11 +10953,11 @@
       </c>
       <c r="C242" s="26">
         <f t="shared" si="27"/>
-        <v>38</v>
+        <v>1203</v>
       </c>
       <c r="D242" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1203</v>
       </c>
       <c r="F242" s="25" t="str">
         <f t="shared" si="34"/>
@@ -10991,11 +10991,11 @@
       </c>
       <c r="C243" s="26">
         <f t="shared" si="27"/>
-        <v>38</v>
+        <v>1206</v>
       </c>
       <c r="D243" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1206</v>
       </c>
       <c r="F243" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11029,11 +11029,11 @@
       </c>
       <c r="C244" s="26">
         <f t="shared" si="27"/>
-        <v>38</v>
+        <v>1209</v>
       </c>
       <c r="D244" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1209</v>
       </c>
       <c r="F244" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11067,11 +11067,11 @@
       </c>
       <c r="C245" s="26">
         <f t="shared" si="27"/>
-        <v>38</v>
+        <v>1212</v>
       </c>
       <c r="D245" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1212</v>
       </c>
       <c r="F245" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11105,11 +11105,11 @@
       </c>
       <c r="C246" s="26">
         <f t="shared" si="27"/>
-        <v>38</v>
+        <v>1215</v>
       </c>
       <c r="D246" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1215</v>
       </c>
       <c r="F246" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11143,11 +11143,11 @@
       </c>
       <c r="C247" s="26">
         <f t="shared" si="27"/>
-        <v>38</v>
+        <v>1218</v>
       </c>
       <c r="D247" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1218</v>
       </c>
       <c r="F247" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11181,11 +11181,11 @@
       </c>
       <c r="C248" s="26">
         <f t="shared" si="27"/>
-        <v>38</v>
+        <v>1221</v>
       </c>
       <c r="D248" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1221</v>
       </c>
       <c r="F248" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11219,11 +11219,11 @@
       </c>
       <c r="C249" s="26">
         <f t="shared" si="27"/>
-        <v>38</v>
+        <v>1224</v>
       </c>
       <c r="D249" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1224</v>
       </c>
       <c r="F249" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11257,11 +11257,11 @@
       </c>
       <c r="C250" s="26">
         <f t="shared" si="27"/>
-        <v>38</v>
+        <v>1227</v>
       </c>
       <c r="D250" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1227</v>
       </c>
       <c r="F250" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11295,11 +11295,11 @@
       </c>
       <c r="C251" s="26">
         <f t="shared" si="27"/>
-        <v>39.5</v>
+        <v>1250</v>
       </c>
       <c r="D251" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1250</v>
       </c>
       <c r="F251" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11333,11 +11333,11 @@
       </c>
       <c r="C252" s="26">
         <f t="shared" si="27"/>
-        <v>39.5</v>
+        <v>1253</v>
       </c>
       <c r="D252" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1253</v>
       </c>
       <c r="F252" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11371,11 +11371,11 @@
       </c>
       <c r="C253" s="26">
         <f t="shared" si="27"/>
-        <v>39.5</v>
+        <v>1256</v>
       </c>
       <c r="D253" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1256</v>
       </c>
       <c r="F253" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11409,11 +11409,11 @@
       </c>
       <c r="C254" s="26">
         <f t="shared" si="27"/>
-        <v>39.5</v>
+        <v>1259</v>
       </c>
       <c r="D254" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1259</v>
       </c>
       <c r="F254" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11447,11 +11447,11 @@
       </c>
       <c r="C255" s="26">
         <f t="shared" si="27"/>
-        <v>39.5</v>
+        <v>1262</v>
       </c>
       <c r="D255" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1262</v>
       </c>
       <c r="F255" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11485,11 +11485,11 @@
       </c>
       <c r="C256" s="26">
         <f t="shared" si="27"/>
-        <v>39.5</v>
+        <v>1265</v>
       </c>
       <c r="D256" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1265</v>
       </c>
       <c r="F256" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11523,11 +11523,11 @@
       </c>
       <c r="C257" s="26">
         <f t="shared" si="27"/>
-        <v>39.5</v>
+        <v>1268</v>
       </c>
       <c r="D257" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1268</v>
       </c>
       <c r="F257" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11561,11 +11561,11 @@
       </c>
       <c r="C258" s="26">
         <f t="shared" si="27"/>
-        <v>39.5</v>
+        <v>1271</v>
       </c>
       <c r="D258" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1271</v>
       </c>
       <c r="F258" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11599,11 +11599,11 @@
       </c>
       <c r="C259" s="26">
         <f t="shared" si="27"/>
-        <v>39.5</v>
+        <v>1274</v>
       </c>
       <c r="D259" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1274</v>
       </c>
       <c r="F259" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11637,11 +11637,11 @@
       </c>
       <c r="C260" s="26">
         <f t="shared" si="27"/>
-        <v>39.5</v>
+        <v>1277</v>
       </c>
       <c r="D260" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1277</v>
       </c>
       <c r="F260" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11675,11 +11675,11 @@
       </c>
       <c r="C261" s="26">
         <f t="shared" si="27"/>
-        <v>41</v>
+        <v>1300</v>
       </c>
       <c r="D261" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1300</v>
       </c>
       <c r="F261" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11713,11 +11713,11 @@
       </c>
       <c r="C262" s="26">
         <f t="shared" si="27"/>
-        <v>41</v>
+        <v>1303</v>
       </c>
       <c r="D262" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1303</v>
       </c>
       <c r="F262" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11751,11 +11751,11 @@
       </c>
       <c r="C263" s="26">
         <f t="shared" si="27"/>
-        <v>41</v>
+        <v>1306</v>
       </c>
       <c r="D263" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1306</v>
       </c>
       <c r="F263" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11789,11 +11789,11 @@
       </c>
       <c r="C264" s="26">
         <f t="shared" si="27"/>
-        <v>41</v>
+        <v>1309</v>
       </c>
       <c r="D264" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1309</v>
       </c>
       <c r="F264" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11827,11 +11827,11 @@
       </c>
       <c r="C265" s="26">
         <f t="shared" si="27"/>
-        <v>41</v>
+        <v>1312</v>
       </c>
       <c r="D265" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1312</v>
       </c>
       <c r="F265" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11865,11 +11865,11 @@
       </c>
       <c r="C266" s="26">
         <f t="shared" si="27"/>
-        <v>41</v>
+        <v>1315</v>
       </c>
       <c r="D266" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1315</v>
       </c>
       <c r="F266" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11903,11 +11903,11 @@
       </c>
       <c r="C267" s="26">
         <f t="shared" si="27"/>
-        <v>41</v>
+        <v>1318</v>
       </c>
       <c r="D267" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1318</v>
       </c>
       <c r="F267" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11941,11 +11941,11 @@
       </c>
       <c r="C268" s="26">
         <f t="shared" si="27"/>
-        <v>41</v>
+        <v>1321</v>
       </c>
       <c r="D268" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1321</v>
       </c>
       <c r="F268" s="25" t="str">
         <f t="shared" si="34"/>
@@ -11979,11 +11979,11 @@
       </c>
       <c r="C269" s="26">
         <f t="shared" si="27"/>
-        <v>41</v>
+        <v>1324</v>
       </c>
       <c r="D269" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1324</v>
       </c>
       <c r="F269" s="25" t="str">
         <f t="shared" si="34"/>
@@ -12017,11 +12017,11 @@
       </c>
       <c r="C270" s="26">
         <f t="shared" si="27"/>
-        <v>41</v>
+        <v>1327</v>
       </c>
       <c r="D270" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1327</v>
       </c>
       <c r="F270" s="25" t="str">
         <f t="shared" si="34"/>
@@ -12055,11 +12055,11 @@
       </c>
       <c r="C271" s="26">
         <f t="shared" si="27"/>
-        <v>42.5</v>
+        <v>1350</v>
       </c>
       <c r="D271" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1350</v>
       </c>
       <c r="F271" s="25" t="str">
         <f t="shared" si="34"/>
@@ -12093,11 +12093,11 @@
       </c>
       <c r="C272" s="26">
         <f t="shared" si="27"/>
-        <v>42.5</v>
+        <v>1353</v>
       </c>
       <c r="D272" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1353</v>
       </c>
       <c r="F272" s="25" t="str">
         <f t="shared" si="34"/>
@@ -12131,11 +12131,11 @@
       </c>
       <c r="C273" s="26">
         <f t="shared" si="27"/>
-        <v>42.5</v>
+        <v>1356</v>
       </c>
       <c r="D273" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1356</v>
       </c>
       <c r="F273" s="25" t="str">
         <f t="shared" si="34"/>
@@ -12169,11 +12169,11 @@
       </c>
       <c r="C274" s="26">
         <f t="shared" si="27"/>
-        <v>42.5</v>
+        <v>1359</v>
       </c>
       <c r="D274" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1359</v>
       </c>
       <c r="F274" s="25" t="str">
         <f t="shared" si="34"/>
@@ -12207,11 +12207,11 @@
       </c>
       <c r="C275" s="26">
         <f t="shared" si="27"/>
-        <v>42.5</v>
+        <v>1362</v>
       </c>
       <c r="D275" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1362</v>
       </c>
       <c r="F275" s="25" t="str">
         <f t="shared" si="34"/>
@@ -12245,11 +12245,11 @@
       </c>
       <c r="C276" s="26">
         <f t="shared" si="27"/>
-        <v>42.5</v>
+        <v>1365</v>
       </c>
       <c r="D276" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1365</v>
       </c>
       <c r="F276" s="25" t="str">
         <f t="shared" si="34"/>
@@ -12283,11 +12283,11 @@
       </c>
       <c r="C277" s="26">
         <f t="shared" ref="C277:C340" si="36">IFERROR(IF($B277=1,$E$15,IF($M$15=FALSE,$C276+((QUOTIENT($B277-1,$I$15)*$F$15)+(QUOTIENT($B277-1,$J$15)*$H$15)),$E$15+((QUOTIENT($B277-1,$I$15)*$F$15)+(QUOTIENT($B277-1,$J$15)*$H$15)))),"")</f>
-        <v>42.5</v>
+        <v>1368</v>
       </c>
       <c r="D277" s="27">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>1368</v>
       </c>
       <c r="F277" s="25" t="str">
         <f t="shared" si="34"/>
@@ -12321,11 +12321,11 @@
       </c>
       <c r="C278" s="26">
         <f t="shared" si="36"/>
-        <v>42.5</v>
+        <v>1371</v>
       </c>
       <c r="D278" s="27">
         <f t="shared" ref="D278:D341" si="42">IF($C278=$A$1,"",(IF(OR($B$15=3,$B$15=10),IF($C278&lt;=$K$15,$K$15,$C278),IF($C278&gt;=$K$15,$K$15,$C278))))</f>
-        <v>15</v>
+        <v>1371</v>
       </c>
       <c r="F278" s="25" t="str">
         <f t="shared" si="34"/>
@@ -12359,11 +12359,11 @@
       </c>
       <c r="C279" s="26">
         <f t="shared" si="36"/>
-        <v>42.5</v>
+        <v>1374</v>
       </c>
       <c r="D279" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1374</v>
       </c>
       <c r="F279" s="25" t="str">
         <f t="shared" ref="F279:F342" si="43">IF($F$20="AtkUG",IF($F278&gt;=$J$11,"",$F278+1),$F278+1)</f>
@@ -12397,11 +12397,11 @@
       </c>
       <c r="C280" s="26">
         <f t="shared" si="36"/>
-        <v>42.5</v>
+        <v>1377</v>
       </c>
       <c r="D280" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1377</v>
       </c>
       <c r="F280" s="25" t="str">
         <f t="shared" si="43"/>
@@ -12435,11 +12435,11 @@
       </c>
       <c r="C281" s="26">
         <f t="shared" si="36"/>
-        <v>44</v>
+        <v>1400</v>
       </c>
       <c r="D281" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1400</v>
       </c>
       <c r="F281" s="25" t="str">
         <f t="shared" si="43"/>
@@ -12473,11 +12473,11 @@
       </c>
       <c r="C282" s="26">
         <f t="shared" si="36"/>
-        <v>44</v>
+        <v>1403</v>
       </c>
       <c r="D282" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1403</v>
       </c>
       <c r="F282" s="25" t="str">
         <f t="shared" si="43"/>
@@ -12511,11 +12511,11 @@
       </c>
       <c r="C283" s="26">
         <f t="shared" si="36"/>
-        <v>44</v>
+        <v>1406</v>
       </c>
       <c r="D283" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1406</v>
       </c>
       <c r="F283" s="25" t="str">
         <f t="shared" si="43"/>
@@ -12549,11 +12549,11 @@
       </c>
       <c r="C284" s="26">
         <f t="shared" si="36"/>
-        <v>44</v>
+        <v>1409</v>
       </c>
       <c r="D284" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1409</v>
       </c>
       <c r="F284" s="25" t="str">
         <f t="shared" si="43"/>
@@ -12587,11 +12587,11 @@
       </c>
       <c r="C285" s="26">
         <f t="shared" si="36"/>
-        <v>44</v>
+        <v>1412</v>
       </c>
       <c r="D285" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1412</v>
       </c>
       <c r="F285" s="25" t="str">
         <f t="shared" si="43"/>
@@ -12625,11 +12625,11 @@
       </c>
       <c r="C286" s="26">
         <f t="shared" si="36"/>
-        <v>44</v>
+        <v>1415</v>
       </c>
       <c r="D286" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1415</v>
       </c>
       <c r="F286" s="25" t="str">
         <f t="shared" si="43"/>
@@ -12663,11 +12663,11 @@
       </c>
       <c r="C287" s="26">
         <f t="shared" si="36"/>
-        <v>44</v>
+        <v>1418</v>
       </c>
       <c r="D287" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1418</v>
       </c>
       <c r="F287" s="25" t="str">
         <f t="shared" si="43"/>
@@ -12701,11 +12701,11 @@
       </c>
       <c r="C288" s="26">
         <f t="shared" si="36"/>
-        <v>44</v>
+        <v>1421</v>
       </c>
       <c r="D288" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1421</v>
       </c>
       <c r="F288" s="25" t="str">
         <f t="shared" si="43"/>
@@ -12739,11 +12739,11 @@
       </c>
       <c r="C289" s="26">
         <f t="shared" si="36"/>
-        <v>44</v>
+        <v>1424</v>
       </c>
       <c r="D289" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1424</v>
       </c>
       <c r="F289" s="25" t="str">
         <f t="shared" si="43"/>
@@ -12777,11 +12777,11 @@
       </c>
       <c r="C290" s="26">
         <f t="shared" si="36"/>
-        <v>44</v>
+        <v>1427</v>
       </c>
       <c r="D290" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1427</v>
       </c>
       <c r="F290" s="25" t="str">
         <f t="shared" si="43"/>
@@ -12815,11 +12815,11 @@
       </c>
       <c r="C291" s="26">
         <f t="shared" si="36"/>
-        <v>45.5</v>
+        <v>1450</v>
       </c>
       <c r="D291" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1450</v>
       </c>
       <c r="F291" s="25" t="str">
         <f t="shared" si="43"/>
@@ -12853,11 +12853,11 @@
       </c>
       <c r="C292" s="26">
         <f t="shared" si="36"/>
-        <v>45.5</v>
+        <v>1453</v>
       </c>
       <c r="D292" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1453</v>
       </c>
       <c r="F292" s="25" t="str">
         <f t="shared" si="43"/>
@@ -12891,11 +12891,11 @@
       </c>
       <c r="C293" s="26">
         <f t="shared" si="36"/>
-        <v>45.5</v>
+        <v>1456</v>
       </c>
       <c r="D293" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1456</v>
       </c>
       <c r="F293" s="25" t="str">
         <f t="shared" si="43"/>
@@ -12929,11 +12929,11 @@
       </c>
       <c r="C294" s="26">
         <f t="shared" si="36"/>
-        <v>45.5</v>
+        <v>1459</v>
       </c>
       <c r="D294" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1459</v>
       </c>
       <c r="F294" s="25" t="str">
         <f t="shared" si="43"/>
@@ -12967,11 +12967,11 @@
       </c>
       <c r="C295" s="26">
         <f t="shared" si="36"/>
-        <v>45.5</v>
+        <v>1462</v>
       </c>
       <c r="D295" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1462</v>
       </c>
       <c r="F295" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13005,11 +13005,11 @@
       </c>
       <c r="C296" s="26">
         <f t="shared" si="36"/>
-        <v>45.5</v>
+        <v>1465</v>
       </c>
       <c r="D296" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1465</v>
       </c>
       <c r="F296" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13043,11 +13043,11 @@
       </c>
       <c r="C297" s="26">
         <f t="shared" si="36"/>
-        <v>45.5</v>
+        <v>1468</v>
       </c>
       <c r="D297" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1468</v>
       </c>
       <c r="F297" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13081,11 +13081,11 @@
       </c>
       <c r="C298" s="26">
         <f t="shared" si="36"/>
-        <v>45.5</v>
+        <v>1471</v>
       </c>
       <c r="D298" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1471</v>
       </c>
       <c r="F298" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="C299" s="26">
         <f t="shared" si="36"/>
-        <v>45.5</v>
+        <v>1474</v>
       </c>
       <c r="D299" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1474</v>
       </c>
       <c r="F299" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13157,11 +13157,11 @@
       </c>
       <c r="C300" s="26">
         <f t="shared" si="36"/>
-        <v>45.5</v>
+        <v>1477</v>
       </c>
       <c r="D300" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1477</v>
       </c>
       <c r="F300" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13195,11 +13195,11 @@
       </c>
       <c r="C301" s="26">
         <f t="shared" si="36"/>
-        <v>47</v>
+        <v>1500</v>
       </c>
       <c r="D301" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="F301" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13233,11 +13233,11 @@
       </c>
       <c r="C302" s="26">
         <f t="shared" si="36"/>
-        <v>47</v>
+        <v>1503</v>
       </c>
       <c r="D302" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1503</v>
       </c>
       <c r="F302" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13271,11 +13271,11 @@
       </c>
       <c r="C303" s="26">
         <f t="shared" si="36"/>
-        <v>47</v>
+        <v>1506</v>
       </c>
       <c r="D303" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1506</v>
       </c>
       <c r="F303" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13309,11 +13309,11 @@
       </c>
       <c r="C304" s="26">
         <f t="shared" si="36"/>
-        <v>47</v>
+        <v>1509</v>
       </c>
       <c r="D304" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1509</v>
       </c>
       <c r="F304" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13347,11 +13347,11 @@
       </c>
       <c r="C305" s="26">
         <f t="shared" si="36"/>
-        <v>47</v>
+        <v>1512</v>
       </c>
       <c r="D305" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1512</v>
       </c>
       <c r="F305" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13385,11 +13385,11 @@
       </c>
       <c r="C306" s="26">
         <f t="shared" si="36"/>
-        <v>47</v>
+        <v>1515</v>
       </c>
       <c r="D306" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1515</v>
       </c>
       <c r="F306" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13423,11 +13423,11 @@
       </c>
       <c r="C307" s="26">
         <f t="shared" si="36"/>
-        <v>47</v>
+        <v>1518</v>
       </c>
       <c r="D307" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1518</v>
       </c>
       <c r="F307" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13461,11 +13461,11 @@
       </c>
       <c r="C308" s="26">
         <f t="shared" si="36"/>
-        <v>47</v>
+        <v>1521</v>
       </c>
       <c r="D308" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1521</v>
       </c>
       <c r="F308" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13499,11 +13499,11 @@
       </c>
       <c r="C309" s="26">
         <f t="shared" si="36"/>
-        <v>47</v>
+        <v>1524</v>
       </c>
       <c r="D309" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1524</v>
       </c>
       <c r="F309" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13537,11 +13537,11 @@
       </c>
       <c r="C310" s="26">
         <f t="shared" si="36"/>
-        <v>47</v>
+        <v>1527</v>
       </c>
       <c r="D310" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1527</v>
       </c>
       <c r="F310" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13575,11 +13575,11 @@
       </c>
       <c r="C311" s="26">
         <f t="shared" si="36"/>
-        <v>48.5</v>
+        <v>1550</v>
       </c>
       <c r="D311" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1550</v>
       </c>
       <c r="F311" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13613,11 +13613,11 @@
       </c>
       <c r="C312" s="26">
         <f t="shared" si="36"/>
-        <v>48.5</v>
+        <v>1553</v>
       </c>
       <c r="D312" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1553</v>
       </c>
       <c r="F312" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13651,11 +13651,11 @@
       </c>
       <c r="C313" s="26">
         <f t="shared" si="36"/>
-        <v>48.5</v>
+        <v>1556</v>
       </c>
       <c r="D313" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1556</v>
       </c>
       <c r="F313" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13689,11 +13689,11 @@
       </c>
       <c r="C314" s="26">
         <f t="shared" si="36"/>
-        <v>48.5</v>
+        <v>1559</v>
       </c>
       <c r="D314" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1559</v>
       </c>
       <c r="F314" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13727,11 +13727,11 @@
       </c>
       <c r="C315" s="26">
         <f t="shared" si="36"/>
-        <v>48.5</v>
+        <v>1562</v>
       </c>
       <c r="D315" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1562</v>
       </c>
       <c r="F315" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13765,11 +13765,11 @@
       </c>
       <c r="C316" s="26">
         <f t="shared" si="36"/>
-        <v>48.5</v>
+        <v>1565</v>
       </c>
       <c r="D316" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1565</v>
       </c>
       <c r="F316" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13803,11 +13803,11 @@
       </c>
       <c r="C317" s="26">
         <f t="shared" si="36"/>
-        <v>48.5</v>
+        <v>1568</v>
       </c>
       <c r="D317" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1568</v>
       </c>
       <c r="F317" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13841,11 +13841,11 @@
       </c>
       <c r="C318" s="26">
         <f t="shared" si="36"/>
-        <v>48.5</v>
+        <v>1571</v>
       </c>
       <c r="D318" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1571</v>
       </c>
       <c r="F318" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13879,11 +13879,11 @@
       </c>
       <c r="C319" s="26">
         <f t="shared" si="36"/>
-        <v>48.5</v>
+        <v>1574</v>
       </c>
       <c r="D319" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1574</v>
       </c>
       <c r="F319" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13917,11 +13917,11 @@
       </c>
       <c r="C320" s="26">
         <f t="shared" si="36"/>
-        <v>48.5</v>
+        <v>1577</v>
       </c>
       <c r="D320" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1577</v>
       </c>
       <c r="F320" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13955,11 +13955,11 @@
       </c>
       <c r="C321" s="26">
         <f t="shared" si="36"/>
-        <v>50</v>
+        <v>1600</v>
       </c>
       <c r="D321" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1600</v>
       </c>
       <c r="F321" s="25" t="str">
         <f t="shared" si="43"/>
@@ -13993,11 +13993,11 @@
       </c>
       <c r="C322" s="26">
         <f t="shared" si="36"/>
-        <v>50</v>
+        <v>1603</v>
       </c>
       <c r="D322" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1603</v>
       </c>
       <c r="F322" s="25" t="str">
         <f t="shared" si="43"/>
@@ -14031,11 +14031,11 @@
       </c>
       <c r="C323" s="26">
         <f t="shared" si="36"/>
-        <v>50</v>
+        <v>1606</v>
       </c>
       <c r="D323" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1606</v>
       </c>
       <c r="F323" s="25" t="str">
         <f t="shared" si="43"/>
@@ -14069,11 +14069,11 @@
       </c>
       <c r="C324" s="26">
         <f t="shared" si="36"/>
-        <v>50</v>
+        <v>1609</v>
       </c>
       <c r="D324" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1609</v>
       </c>
       <c r="F324" s="25" t="str">
         <f t="shared" si="43"/>
@@ -14107,11 +14107,11 @@
       </c>
       <c r="C325" s="26">
         <f t="shared" si="36"/>
-        <v>50</v>
+        <v>1612</v>
       </c>
       <c r="D325" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1612</v>
       </c>
       <c r="F325" s="25" t="str">
         <f t="shared" si="43"/>
@@ -14145,11 +14145,11 @@
       </c>
       <c r="C326" s="26">
         <f t="shared" si="36"/>
-        <v>50</v>
+        <v>1615</v>
       </c>
       <c r="D326" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1615</v>
       </c>
       <c r="F326" s="25" t="str">
         <f t="shared" si="43"/>
@@ -14183,11 +14183,11 @@
       </c>
       <c r="C327" s="26">
         <f t="shared" si="36"/>
-        <v>50</v>
+        <v>1618</v>
       </c>
       <c r="D327" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1618</v>
       </c>
       <c r="F327" s="25" t="str">
         <f t="shared" si="43"/>
@@ -14221,11 +14221,11 @@
       </c>
       <c r="C328" s="26">
         <f t="shared" si="36"/>
-        <v>50</v>
+        <v>1621</v>
       </c>
       <c r="D328" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1621</v>
       </c>
       <c r="F328" s="25" t="str">
         <f t="shared" si="43"/>
@@ -14259,11 +14259,11 @@
       </c>
       <c r="C329" s="26">
         <f t="shared" si="36"/>
-        <v>50</v>
+        <v>1624</v>
       </c>
       <c r="D329" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1624</v>
       </c>
       <c r="F329" s="25" t="str">
         <f t="shared" si="43"/>
@@ -14297,11 +14297,11 @@
       </c>
       <c r="C330" s="26">
         <f t="shared" si="36"/>
-        <v>50</v>
+        <v>1627</v>
       </c>
       <c r="D330" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1627</v>
       </c>
       <c r="F330" s="25" t="str">
         <f t="shared" si="43"/>
@@ -14335,11 +14335,11 @@
       </c>
       <c r="C331" s="26">
         <f t="shared" si="36"/>
-        <v>51.5</v>
+        <v>1650</v>
       </c>
       <c r="D331" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1650</v>
       </c>
       <c r="F331" s="25" t="str">
         <f t="shared" si="43"/>
@@ -14373,11 +14373,11 @@
       </c>
       <c r="C332" s="26">
         <f t="shared" si="36"/>
-        <v>51.5</v>
+        <v>1653</v>
       </c>
       <c r="D332" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1653</v>
       </c>
       <c r="F332" s="25" t="str">
         <f t="shared" si="43"/>
@@ -14411,11 +14411,11 @@
       </c>
       <c r="C333" s="26">
         <f t="shared" si="36"/>
-        <v>51.5</v>
+        <v>1656</v>
       </c>
       <c r="D333" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1656</v>
       </c>
       <c r="F333" s="25" t="str">
         <f t="shared" si="43"/>
@@ -14449,11 +14449,11 @@
       </c>
       <c r="C334" s="26">
         <f t="shared" si="36"/>
-        <v>51.5</v>
+        <v>1659</v>
       </c>
       <c r="D334" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1659</v>
       </c>
       <c r="F334" s="25" t="str">
         <f t="shared" si="43"/>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="C335" s="26">
         <f t="shared" si="36"/>
-        <v>51.5</v>
+        <v>1662</v>
       </c>
       <c r="D335" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1662</v>
       </c>
       <c r="F335" s="25" t="str">
         <f t="shared" si="43"/>
@@ -14525,11 +14525,11 @@
       </c>
       <c r="C336" s="26">
         <f t="shared" si="36"/>
-        <v>51.5</v>
+        <v>1665</v>
       </c>
       <c r="D336" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1665</v>
       </c>
       <c r="F336" s="25" t="str">
         <f t="shared" si="43"/>
@@ -14563,11 +14563,11 @@
       </c>
       <c r="C337" s="26">
         <f t="shared" si="36"/>
-        <v>51.5</v>
+        <v>1668</v>
       </c>
       <c r="D337" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1668</v>
       </c>
       <c r="F337" s="25" t="str">
         <f t="shared" si="43"/>
@@ -14601,11 +14601,11 @@
       </c>
       <c r="C338" s="26">
         <f t="shared" si="36"/>
-        <v>51.5</v>
+        <v>1671</v>
       </c>
       <c r="D338" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1671</v>
       </c>
       <c r="F338" s="25" t="str">
         <f t="shared" si="43"/>
@@ -14639,11 +14639,11 @@
       </c>
       <c r="C339" s="26">
         <f t="shared" si="36"/>
-        <v>51.5</v>
+        <v>1674</v>
       </c>
       <c r="D339" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1674</v>
       </c>
       <c r="F339" s="25" t="str">
         <f t="shared" si="43"/>
@@ -14677,11 +14677,11 @@
       </c>
       <c r="C340" s="26">
         <f t="shared" si="36"/>
-        <v>51.5</v>
+        <v>1677</v>
       </c>
       <c r="D340" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1677</v>
       </c>
       <c r="F340" s="25" t="str">
         <f t="shared" si="43"/>
@@ -14715,11 +14715,11 @@
       </c>
       <c r="C341" s="26">
         <f t="shared" ref="C341:C404" si="45">IFERROR(IF($B341=1,$E$15,IF($M$15=FALSE,$C340+((QUOTIENT($B341-1,$I$15)*$F$15)+(QUOTIENT($B341-1,$J$15)*$H$15)),$E$15+((QUOTIENT($B341-1,$I$15)*$F$15)+(QUOTIENT($B341-1,$J$15)*$H$15)))),"")</f>
-        <v>53</v>
+        <v>1700</v>
       </c>
       <c r="D341" s="27">
         <f t="shared" si="42"/>
-        <v>15</v>
+        <v>1700</v>
       </c>
       <c r="F341" s="25" t="str">
         <f t="shared" si="43"/>
@@ -14753,11 +14753,11 @@
       </c>
       <c r="C342" s="26">
         <f t="shared" si="45"/>
-        <v>53</v>
+        <v>1703</v>
       </c>
       <c r="D342" s="27">
         <f t="shared" ref="D342:D405" si="51">IF($C342=$A$1,"",(IF(OR($B$15=3,$B$15=10),IF($C342&lt;=$K$15,$K$15,$C342),IF($C342&gt;=$K$15,$K$15,$C342))))</f>
-        <v>15</v>
+        <v>1703</v>
       </c>
       <c r="F342" s="25" t="str">
         <f t="shared" si="43"/>
@@ -14791,11 +14791,11 @@
       </c>
       <c r="C343" s="26">
         <f t="shared" si="45"/>
-        <v>53</v>
+        <v>1706</v>
       </c>
       <c r="D343" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1706</v>
       </c>
       <c r="F343" s="25" t="str">
         <f t="shared" ref="F343:F406" si="52">IF($F$20="AtkUG",IF($F342&gt;=$J$11,"",$F342+1),$F342+1)</f>
@@ -14829,11 +14829,11 @@
       </c>
       <c r="C344" s="26">
         <f t="shared" si="45"/>
-        <v>53</v>
+        <v>1709</v>
       </c>
       <c r="D344" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1709</v>
       </c>
       <c r="F344" s="25" t="str">
         <f t="shared" si="52"/>
@@ -14867,11 +14867,11 @@
       </c>
       <c r="C345" s="26">
         <f t="shared" si="45"/>
-        <v>53</v>
+        <v>1712</v>
       </c>
       <c r="D345" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1712</v>
       </c>
       <c r="F345" s="25" t="str">
         <f t="shared" si="52"/>
@@ -14905,11 +14905,11 @@
       </c>
       <c r="C346" s="26">
         <f t="shared" si="45"/>
-        <v>53</v>
+        <v>1715</v>
       </c>
       <c r="D346" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1715</v>
       </c>
       <c r="F346" s="25" t="str">
         <f t="shared" si="52"/>
@@ -14943,11 +14943,11 @@
       </c>
       <c r="C347" s="26">
         <f t="shared" si="45"/>
-        <v>53</v>
+        <v>1718</v>
       </c>
       <c r="D347" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1718</v>
       </c>
       <c r="F347" s="25" t="str">
         <f t="shared" si="52"/>
@@ -14981,11 +14981,11 @@
       </c>
       <c r="C348" s="26">
         <f t="shared" si="45"/>
-        <v>53</v>
+        <v>1721</v>
       </c>
       <c r="D348" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1721</v>
       </c>
       <c r="F348" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15019,11 +15019,11 @@
       </c>
       <c r="C349" s="26">
         <f t="shared" si="45"/>
-        <v>53</v>
+        <v>1724</v>
       </c>
       <c r="D349" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1724</v>
       </c>
       <c r="F349" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15057,11 +15057,11 @@
       </c>
       <c r="C350" s="26">
         <f t="shared" si="45"/>
-        <v>53</v>
+        <v>1727</v>
       </c>
       <c r="D350" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1727</v>
       </c>
       <c r="F350" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15095,11 +15095,11 @@
       </c>
       <c r="C351" s="26">
         <f t="shared" si="45"/>
-        <v>54.5</v>
+        <v>1750</v>
       </c>
       <c r="D351" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1750</v>
       </c>
       <c r="F351" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15133,11 +15133,11 @@
       </c>
       <c r="C352" s="26">
         <f t="shared" si="45"/>
-        <v>54.5</v>
+        <v>1753</v>
       </c>
       <c r="D352" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1753</v>
       </c>
       <c r="F352" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15171,11 +15171,11 @@
       </c>
       <c r="C353" s="26">
         <f t="shared" si="45"/>
-        <v>54.5</v>
+        <v>1756</v>
       </c>
       <c r="D353" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1756</v>
       </c>
       <c r="F353" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15209,11 +15209,11 @@
       </c>
       <c r="C354" s="26">
         <f t="shared" si="45"/>
-        <v>54.5</v>
+        <v>1759</v>
       </c>
       <c r="D354" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1759</v>
       </c>
       <c r="F354" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15247,11 +15247,11 @@
       </c>
       <c r="C355" s="26">
         <f t="shared" si="45"/>
-        <v>54.5</v>
+        <v>1762</v>
       </c>
       <c r="D355" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1762</v>
       </c>
       <c r="F355" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15285,11 +15285,11 @@
       </c>
       <c r="C356" s="26">
         <f t="shared" si="45"/>
-        <v>54.5</v>
+        <v>1765</v>
       </c>
       <c r="D356" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1765</v>
       </c>
       <c r="F356" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15323,11 +15323,11 @@
       </c>
       <c r="C357" s="26">
         <f t="shared" si="45"/>
-        <v>54.5</v>
+        <v>1768</v>
       </c>
       <c r="D357" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1768</v>
       </c>
       <c r="F357" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15361,11 +15361,11 @@
       </c>
       <c r="C358" s="26">
         <f t="shared" si="45"/>
-        <v>54.5</v>
+        <v>1771</v>
       </c>
       <c r="D358" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1771</v>
       </c>
       <c r="F358" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15399,11 +15399,11 @@
       </c>
       <c r="C359" s="26">
         <f t="shared" si="45"/>
-        <v>54.5</v>
+        <v>1774</v>
       </c>
       <c r="D359" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1774</v>
       </c>
       <c r="F359" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15437,11 +15437,11 @@
       </c>
       <c r="C360" s="26">
         <f t="shared" si="45"/>
-        <v>54.5</v>
+        <v>1777</v>
       </c>
       <c r="D360" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1777</v>
       </c>
       <c r="F360" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15475,11 +15475,11 @@
       </c>
       <c r="C361" s="26">
         <f t="shared" si="45"/>
-        <v>56</v>
+        <v>1800</v>
       </c>
       <c r="D361" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1800</v>
       </c>
       <c r="F361" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15513,11 +15513,11 @@
       </c>
       <c r="C362" s="26">
         <f t="shared" si="45"/>
-        <v>56</v>
+        <v>1803</v>
       </c>
       <c r="D362" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1803</v>
       </c>
       <c r="F362" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15551,11 +15551,11 @@
       </c>
       <c r="C363" s="26">
         <f t="shared" si="45"/>
-        <v>56</v>
+        <v>1806</v>
       </c>
       <c r="D363" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1806</v>
       </c>
       <c r="F363" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15589,11 +15589,11 @@
       </c>
       <c r="C364" s="26">
         <f t="shared" si="45"/>
-        <v>56</v>
+        <v>1809</v>
       </c>
       <c r="D364" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1809</v>
       </c>
       <c r="F364" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15627,11 +15627,11 @@
       </c>
       <c r="C365" s="26">
         <f t="shared" si="45"/>
-        <v>56</v>
+        <v>1812</v>
       </c>
       <c r="D365" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1812</v>
       </c>
       <c r="F365" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15665,11 +15665,11 @@
       </c>
       <c r="C366" s="26">
         <f t="shared" si="45"/>
-        <v>56</v>
+        <v>1815</v>
       </c>
       <c r="D366" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1815</v>
       </c>
       <c r="F366" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15703,11 +15703,11 @@
       </c>
       <c r="C367" s="26">
         <f t="shared" si="45"/>
-        <v>56</v>
+        <v>1818</v>
       </c>
       <c r="D367" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1818</v>
       </c>
       <c r="F367" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15741,11 +15741,11 @@
       </c>
       <c r="C368" s="26">
         <f t="shared" si="45"/>
-        <v>56</v>
+        <v>1821</v>
       </c>
       <c r="D368" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1821</v>
       </c>
       <c r="F368" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15779,11 +15779,11 @@
       </c>
       <c r="C369" s="26">
         <f t="shared" si="45"/>
-        <v>56</v>
+        <v>1824</v>
       </c>
       <c r="D369" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1824</v>
       </c>
       <c r="F369" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15817,11 +15817,11 @@
       </c>
       <c r="C370" s="26">
         <f t="shared" si="45"/>
-        <v>56</v>
+        <v>1827</v>
       </c>
       <c r="D370" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1827</v>
       </c>
       <c r="F370" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="C371" s="26">
         <f t="shared" si="45"/>
-        <v>57.5</v>
+        <v>1850</v>
       </c>
       <c r="D371" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1850</v>
       </c>
       <c r="F371" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15893,11 +15893,11 @@
       </c>
       <c r="C372" s="26">
         <f t="shared" si="45"/>
-        <v>57.5</v>
+        <v>1853</v>
       </c>
       <c r="D372" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1853</v>
       </c>
       <c r="F372" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15931,11 +15931,11 @@
       </c>
       <c r="C373" s="26">
         <f t="shared" si="45"/>
-        <v>57.5</v>
+        <v>1856</v>
       </c>
       <c r="D373" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1856</v>
       </c>
       <c r="F373" s="25" t="str">
         <f t="shared" si="52"/>
@@ -15969,11 +15969,11 @@
       </c>
       <c r="C374" s="26">
         <f t="shared" si="45"/>
-        <v>57.5</v>
+        <v>1859</v>
       </c>
       <c r="D374" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1859</v>
       </c>
       <c r="F374" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16007,11 +16007,11 @@
       </c>
       <c r="C375" s="26">
         <f t="shared" si="45"/>
-        <v>57.5</v>
+        <v>1862</v>
       </c>
       <c r="D375" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1862</v>
       </c>
       <c r="F375" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16045,11 +16045,11 @@
       </c>
       <c r="C376" s="26">
         <f t="shared" si="45"/>
-        <v>57.5</v>
+        <v>1865</v>
       </c>
       <c r="D376" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1865</v>
       </c>
       <c r="F376" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16083,11 +16083,11 @@
       </c>
       <c r="C377" s="26">
         <f t="shared" si="45"/>
-        <v>57.5</v>
+        <v>1868</v>
       </c>
       <c r="D377" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1868</v>
       </c>
       <c r="F377" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16121,11 +16121,11 @@
       </c>
       <c r="C378" s="26">
         <f t="shared" si="45"/>
-        <v>57.5</v>
+        <v>1871</v>
       </c>
       <c r="D378" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1871</v>
       </c>
       <c r="F378" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16159,11 +16159,11 @@
       </c>
       <c r="C379" s="26">
         <f t="shared" si="45"/>
-        <v>57.5</v>
+        <v>1874</v>
       </c>
       <c r="D379" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1874</v>
       </c>
       <c r="F379" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16197,11 +16197,11 @@
       </c>
       <c r="C380" s="26">
         <f t="shared" si="45"/>
-        <v>57.5</v>
+        <v>1877</v>
       </c>
       <c r="D380" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1877</v>
       </c>
       <c r="F380" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16235,11 +16235,11 @@
       </c>
       <c r="C381" s="26">
         <f t="shared" si="45"/>
-        <v>59</v>
+        <v>1900</v>
       </c>
       <c r="D381" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1900</v>
       </c>
       <c r="F381" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16273,11 +16273,11 @@
       </c>
       <c r="C382" s="26">
         <f t="shared" si="45"/>
-        <v>59</v>
+        <v>1903</v>
       </c>
       <c r="D382" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1903</v>
       </c>
       <c r="F382" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16311,11 +16311,11 @@
       </c>
       <c r="C383" s="26">
         <f t="shared" si="45"/>
-        <v>59</v>
+        <v>1906</v>
       </c>
       <c r="D383" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1906</v>
       </c>
       <c r="F383" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16349,11 +16349,11 @@
       </c>
       <c r="C384" s="26">
         <f t="shared" si="45"/>
-        <v>59</v>
+        <v>1909</v>
       </c>
       <c r="D384" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1909</v>
       </c>
       <c r="F384" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16387,11 +16387,11 @@
       </c>
       <c r="C385" s="26">
         <f t="shared" si="45"/>
-        <v>59</v>
+        <v>1912</v>
       </c>
       <c r="D385" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1912</v>
       </c>
       <c r="F385" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16425,11 +16425,11 @@
       </c>
       <c r="C386" s="26">
         <f t="shared" si="45"/>
-        <v>59</v>
+        <v>1915</v>
       </c>
       <c r="D386" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1915</v>
       </c>
       <c r="F386" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16463,11 +16463,11 @@
       </c>
       <c r="C387" s="26">
         <f t="shared" si="45"/>
-        <v>59</v>
+        <v>1918</v>
       </c>
       <c r="D387" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="F387" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16501,11 +16501,11 @@
       </c>
       <c r="C388" s="26">
         <f t="shared" si="45"/>
-        <v>59</v>
+        <v>1921</v>
       </c>
       <c r="D388" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1921</v>
       </c>
       <c r="F388" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16539,11 +16539,11 @@
       </c>
       <c r="C389" s="26">
         <f t="shared" si="45"/>
-        <v>59</v>
+        <v>1924</v>
       </c>
       <c r="D389" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1924</v>
       </c>
       <c r="F389" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16577,11 +16577,11 @@
       </c>
       <c r="C390" s="26">
         <f t="shared" si="45"/>
-        <v>59</v>
+        <v>1927</v>
       </c>
       <c r="D390" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1927</v>
       </c>
       <c r="F390" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16615,11 +16615,11 @@
       </c>
       <c r="C391" s="26">
         <f t="shared" si="45"/>
-        <v>60.5</v>
+        <v>1950</v>
       </c>
       <c r="D391" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1950</v>
       </c>
       <c r="F391" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16653,11 +16653,11 @@
       </c>
       <c r="C392" s="26">
         <f t="shared" si="45"/>
-        <v>60.5</v>
+        <v>1953</v>
       </c>
       <c r="D392" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1953</v>
       </c>
       <c r="F392" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16691,11 +16691,11 @@
       </c>
       <c r="C393" s="26">
         <f t="shared" si="45"/>
-        <v>60.5</v>
+        <v>1956</v>
       </c>
       <c r="D393" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1956</v>
       </c>
       <c r="F393" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16729,11 +16729,11 @@
       </c>
       <c r="C394" s="26">
         <f t="shared" si="45"/>
-        <v>60.5</v>
+        <v>1959</v>
       </c>
       <c r="D394" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1959</v>
       </c>
       <c r="F394" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16767,11 +16767,11 @@
       </c>
       <c r="C395" s="26">
         <f t="shared" si="45"/>
-        <v>60.5</v>
+        <v>1962</v>
       </c>
       <c r="D395" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1962</v>
       </c>
       <c r="F395" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16805,11 +16805,11 @@
       </c>
       <c r="C396" s="26">
         <f t="shared" si="45"/>
-        <v>60.5</v>
+        <v>1965</v>
       </c>
       <c r="D396" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1965</v>
       </c>
       <c r="F396" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16843,11 +16843,11 @@
       </c>
       <c r="C397" s="26">
         <f t="shared" si="45"/>
-        <v>60.5</v>
+        <v>1968</v>
       </c>
       <c r="D397" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1968</v>
       </c>
       <c r="F397" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16881,11 +16881,11 @@
       </c>
       <c r="C398" s="26">
         <f t="shared" si="45"/>
-        <v>60.5</v>
+        <v>1971</v>
       </c>
       <c r="D398" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1971</v>
       </c>
       <c r="F398" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16919,11 +16919,11 @@
       </c>
       <c r="C399" s="26">
         <f t="shared" si="45"/>
-        <v>60.5</v>
+        <v>1974</v>
       </c>
       <c r="D399" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1974</v>
       </c>
       <c r="F399" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16957,11 +16957,11 @@
       </c>
       <c r="C400" s="26">
         <f t="shared" si="45"/>
-        <v>60.5</v>
+        <v>1977</v>
       </c>
       <c r="D400" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>1977</v>
       </c>
       <c r="F400" s="25" t="str">
         <f t="shared" si="52"/>
@@ -16995,11 +16995,11 @@
       </c>
       <c r="C401" s="26">
         <f t="shared" si="45"/>
-        <v>62</v>
+        <v>2000</v>
       </c>
       <c r="D401" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F401" s="25" t="str">
         <f t="shared" si="52"/>
@@ -17033,11 +17033,11 @@
       </c>
       <c r="C402" s="26">
         <f t="shared" si="45"/>
-        <v>62</v>
+        <v>2003</v>
       </c>
       <c r="D402" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F402" s="25" t="str">
         <f t="shared" si="52"/>
@@ -17071,11 +17071,11 @@
       </c>
       <c r="C403" s="26">
         <f t="shared" si="45"/>
-        <v>62</v>
+        <v>2006</v>
       </c>
       <c r="D403" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F403" s="25" t="str">
         <f t="shared" si="52"/>
@@ -17109,11 +17109,11 @@
       </c>
       <c r="C404" s="26">
         <f t="shared" si="45"/>
-        <v>62</v>
+        <v>2009</v>
       </c>
       <c r="D404" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F404" s="25" t="str">
         <f t="shared" si="52"/>
@@ -17147,11 +17147,11 @@
       </c>
       <c r="C405" s="26">
         <f t="shared" ref="C405:C468" si="54">IFERROR(IF($B405=1,$E$15,IF($M$15=FALSE,$C404+((QUOTIENT($B405-1,$I$15)*$F$15)+(QUOTIENT($B405-1,$J$15)*$H$15)),$E$15+((QUOTIENT($B405-1,$I$15)*$F$15)+(QUOTIENT($B405-1,$J$15)*$H$15)))),"")</f>
-        <v>62</v>
+        <v>2012</v>
       </c>
       <c r="D405" s="27">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F405" s="25" t="str">
         <f t="shared" si="52"/>
@@ -17185,11 +17185,11 @@
       </c>
       <c r="C406" s="26">
         <f t="shared" si="54"/>
-        <v>62</v>
+        <v>2015</v>
       </c>
       <c r="D406" s="27">
         <f t="shared" ref="D406:D469" si="60">IF($C406=$A$1,"",(IF(OR($B$15=3,$B$15=10),IF($C406&lt;=$K$15,$K$15,$C406),IF($C406&gt;=$K$15,$K$15,$C406))))</f>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F406" s="25" t="str">
         <f t="shared" si="52"/>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="C407" s="26">
         <f t="shared" si="54"/>
-        <v>62</v>
+        <v>2018</v>
       </c>
       <c r="D407" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F407" s="25" t="str">
         <f t="shared" ref="F407:F470" si="61">IF($F$20="AtkUG",IF($F406&gt;=$J$11,"",$F406+1),$F406+1)</f>
@@ -17261,11 +17261,11 @@
       </c>
       <c r="C408" s="26">
         <f t="shared" si="54"/>
-        <v>62</v>
+        <v>2021</v>
       </c>
       <c r="D408" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F408" s="25" t="str">
         <f t="shared" si="61"/>
@@ -17299,11 +17299,11 @@
       </c>
       <c r="C409" s="26">
         <f t="shared" si="54"/>
-        <v>62</v>
+        <v>2024</v>
       </c>
       <c r="D409" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F409" s="25" t="str">
         <f t="shared" si="61"/>
@@ -17337,11 +17337,11 @@
       </c>
       <c r="C410" s="26">
         <f t="shared" si="54"/>
-        <v>62</v>
+        <v>2027</v>
       </c>
       <c r="D410" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F410" s="25" t="str">
         <f t="shared" si="61"/>
@@ -17375,11 +17375,11 @@
       </c>
       <c r="C411" s="26">
         <f t="shared" si="54"/>
-        <v>63.5</v>
+        <v>2050</v>
       </c>
       <c r="D411" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F411" s="25" t="str">
         <f t="shared" si="61"/>
@@ -17413,11 +17413,11 @@
       </c>
       <c r="C412" s="26">
         <f t="shared" si="54"/>
-        <v>63.5</v>
+        <v>2053</v>
       </c>
       <c r="D412" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F412" s="25" t="str">
         <f t="shared" si="61"/>
@@ -17451,11 +17451,11 @@
       </c>
       <c r="C413" s="26">
         <f t="shared" si="54"/>
-        <v>63.5</v>
+        <v>2056</v>
       </c>
       <c r="D413" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F413" s="25" t="str">
         <f t="shared" si="61"/>
@@ -17489,11 +17489,11 @@
       </c>
       <c r="C414" s="26">
         <f t="shared" si="54"/>
-        <v>63.5</v>
+        <v>2059</v>
       </c>
       <c r="D414" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F414" s="25" t="str">
         <f t="shared" si="61"/>
@@ -17527,11 +17527,11 @@
       </c>
       <c r="C415" s="26">
         <f t="shared" si="54"/>
-        <v>63.5</v>
+        <v>2062</v>
       </c>
       <c r="D415" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F415" s="25" t="str">
         <f t="shared" si="61"/>
@@ -17565,11 +17565,11 @@
       </c>
       <c r="C416" s="26">
         <f t="shared" si="54"/>
-        <v>63.5</v>
+        <v>2065</v>
       </c>
       <c r="D416" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F416" s="25" t="str">
         <f t="shared" si="61"/>
@@ -17603,11 +17603,11 @@
       </c>
       <c r="C417" s="26">
         <f t="shared" si="54"/>
-        <v>63.5</v>
+        <v>2068</v>
       </c>
       <c r="D417" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F417" s="25" t="str">
         <f t="shared" si="61"/>
@@ -17641,11 +17641,11 @@
       </c>
       <c r="C418" s="26">
         <f t="shared" si="54"/>
-        <v>63.5</v>
+        <v>2071</v>
       </c>
       <c r="D418" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F418" s="25" t="str">
         <f t="shared" si="61"/>
@@ -17679,11 +17679,11 @@
       </c>
       <c r="C419" s="26">
         <f t="shared" si="54"/>
-        <v>63.5</v>
+        <v>2074</v>
       </c>
       <c r="D419" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F419" s="25" t="str">
         <f t="shared" si="61"/>
@@ -17717,11 +17717,11 @@
       </c>
       <c r="C420" s="26">
         <f t="shared" si="54"/>
-        <v>63.5</v>
+        <v>2077</v>
       </c>
       <c r="D420" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F420" s="25" t="str">
         <f t="shared" si="61"/>
@@ -17755,11 +17755,11 @@
       </c>
       <c r="C421" s="26">
         <f t="shared" si="54"/>
-        <v>65</v>
+        <v>2100</v>
       </c>
       <c r="D421" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F421" s="25" t="str">
         <f t="shared" si="61"/>
@@ -17793,11 +17793,11 @@
       </c>
       <c r="C422" s="26">
         <f t="shared" si="54"/>
-        <v>65</v>
+        <v>2103</v>
       </c>
       <c r="D422" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F422" s="25" t="str">
         <f t="shared" si="61"/>
@@ -17831,11 +17831,11 @@
       </c>
       <c r="C423" s="26">
         <f t="shared" si="54"/>
-        <v>65</v>
+        <v>2106</v>
       </c>
       <c r="D423" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F423" s="25" t="str">
         <f t="shared" si="61"/>
@@ -17869,11 +17869,11 @@
       </c>
       <c r="C424" s="26">
         <f t="shared" si="54"/>
-        <v>65</v>
+        <v>2109</v>
       </c>
       <c r="D424" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F424" s="25" t="str">
         <f t="shared" si="61"/>
@@ -17907,11 +17907,11 @@
       </c>
       <c r="C425" s="26">
         <f t="shared" si="54"/>
-        <v>65</v>
+        <v>2112</v>
       </c>
       <c r="D425" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F425" s="25" t="str">
         <f t="shared" si="61"/>
@@ -17945,11 +17945,11 @@
       </c>
       <c r="C426" s="26">
         <f t="shared" si="54"/>
-        <v>65</v>
+        <v>2115</v>
       </c>
       <c r="D426" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F426" s="25" t="str">
         <f t="shared" si="61"/>
@@ -17983,11 +17983,11 @@
       </c>
       <c r="C427" s="26">
         <f t="shared" si="54"/>
-        <v>65</v>
+        <v>2118</v>
       </c>
       <c r="D427" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F427" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18021,11 +18021,11 @@
       </c>
       <c r="C428" s="26">
         <f t="shared" si="54"/>
-        <v>65</v>
+        <v>2121</v>
       </c>
       <c r="D428" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F428" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18059,11 +18059,11 @@
       </c>
       <c r="C429" s="26">
         <f t="shared" si="54"/>
-        <v>65</v>
+        <v>2124</v>
       </c>
       <c r="D429" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F429" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18097,11 +18097,11 @@
       </c>
       <c r="C430" s="26">
         <f t="shared" si="54"/>
-        <v>65</v>
+        <v>2127</v>
       </c>
       <c r="D430" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F430" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18135,11 +18135,11 @@
       </c>
       <c r="C431" s="26">
         <f t="shared" si="54"/>
-        <v>66.5</v>
+        <v>2150</v>
       </c>
       <c r="D431" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F431" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18173,11 +18173,11 @@
       </c>
       <c r="C432" s="26">
         <f t="shared" si="54"/>
-        <v>66.5</v>
+        <v>2153</v>
       </c>
       <c r="D432" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F432" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18211,11 +18211,11 @@
       </c>
       <c r="C433" s="26">
         <f t="shared" si="54"/>
-        <v>66.5</v>
+        <v>2156</v>
       </c>
       <c r="D433" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F433" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18249,11 +18249,11 @@
       </c>
       <c r="C434" s="26">
         <f t="shared" si="54"/>
-        <v>66.5</v>
+        <v>2159</v>
       </c>
       <c r="D434" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F434" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18287,11 +18287,11 @@
       </c>
       <c r="C435" s="26">
         <f t="shared" si="54"/>
-        <v>66.5</v>
+        <v>2162</v>
       </c>
       <c r="D435" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F435" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18325,11 +18325,11 @@
       </c>
       <c r="C436" s="26">
         <f t="shared" si="54"/>
-        <v>66.5</v>
+        <v>2165</v>
       </c>
       <c r="D436" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F436" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18363,11 +18363,11 @@
       </c>
       <c r="C437" s="26">
         <f t="shared" si="54"/>
-        <v>66.5</v>
+        <v>2168</v>
       </c>
       <c r="D437" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F437" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18401,11 +18401,11 @@
       </c>
       <c r="C438" s="26">
         <f t="shared" si="54"/>
-        <v>66.5</v>
+        <v>2171</v>
       </c>
       <c r="D438" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F438" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18439,11 +18439,11 @@
       </c>
       <c r="C439" s="26">
         <f t="shared" si="54"/>
-        <v>66.5</v>
+        <v>2174</v>
       </c>
       <c r="D439" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F439" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18477,11 +18477,11 @@
       </c>
       <c r="C440" s="26">
         <f t="shared" si="54"/>
-        <v>66.5</v>
+        <v>2177</v>
       </c>
       <c r="D440" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F440" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18515,11 +18515,11 @@
       </c>
       <c r="C441" s="26">
         <f t="shared" si="54"/>
-        <v>68</v>
+        <v>2200</v>
       </c>
       <c r="D441" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F441" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18553,11 +18553,11 @@
       </c>
       <c r="C442" s="26">
         <f t="shared" si="54"/>
-        <v>68</v>
+        <v>2203</v>
       </c>
       <c r="D442" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F442" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18591,11 +18591,11 @@
       </c>
       <c r="C443" s="26">
         <f t="shared" si="54"/>
-        <v>68</v>
+        <v>2206</v>
       </c>
       <c r="D443" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F443" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18629,11 +18629,11 @@
       </c>
       <c r="C444" s="26">
         <f t="shared" si="54"/>
-        <v>68</v>
+        <v>2209</v>
       </c>
       <c r="D444" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F444" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18667,11 +18667,11 @@
       </c>
       <c r="C445" s="26">
         <f t="shared" si="54"/>
-        <v>68</v>
+        <v>2212</v>
       </c>
       <c r="D445" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F445" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18705,11 +18705,11 @@
       </c>
       <c r="C446" s="26">
         <f t="shared" si="54"/>
-        <v>68</v>
+        <v>2215</v>
       </c>
       <c r="D446" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F446" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18743,11 +18743,11 @@
       </c>
       <c r="C447" s="26">
         <f t="shared" si="54"/>
-        <v>68</v>
+        <v>2218</v>
       </c>
       <c r="D447" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F447" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18781,11 +18781,11 @@
       </c>
       <c r="C448" s="26">
         <f t="shared" si="54"/>
-        <v>68</v>
+        <v>2221</v>
       </c>
       <c r="D448" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F448" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18819,11 +18819,11 @@
       </c>
       <c r="C449" s="26">
         <f t="shared" si="54"/>
-        <v>68</v>
+        <v>2224</v>
       </c>
       <c r="D449" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F449" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18857,11 +18857,11 @@
       </c>
       <c r="C450" s="26">
         <f t="shared" si="54"/>
-        <v>68</v>
+        <v>2227</v>
       </c>
       <c r="D450" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F450" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18895,11 +18895,11 @@
       </c>
       <c r="C451" s="26">
         <f t="shared" si="54"/>
-        <v>69.5</v>
+        <v>2250</v>
       </c>
       <c r="D451" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F451" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18933,11 +18933,11 @@
       </c>
       <c r="C452" s="26">
         <f t="shared" si="54"/>
-        <v>69.5</v>
+        <v>2253</v>
       </c>
       <c r="D452" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F452" s="25" t="str">
         <f t="shared" si="61"/>
@@ -18971,11 +18971,11 @@
       </c>
       <c r="C453" s="26">
         <f t="shared" si="54"/>
-        <v>69.5</v>
+        <v>2256</v>
       </c>
       <c r="D453" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F453" s="25" t="str">
         <f t="shared" si="61"/>
@@ -19009,11 +19009,11 @@
       </c>
       <c r="C454" s="26">
         <f t="shared" si="54"/>
-        <v>69.5</v>
+        <v>2259</v>
       </c>
       <c r="D454" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F454" s="25" t="str">
         <f t="shared" si="61"/>
@@ -19047,11 +19047,11 @@
       </c>
       <c r="C455" s="26">
         <f t="shared" si="54"/>
-        <v>69.5</v>
+        <v>2262</v>
       </c>
       <c r="D455" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F455" s="25" t="str">
         <f t="shared" si="61"/>
@@ -19085,11 +19085,11 @@
       </c>
       <c r="C456" s="26">
         <f t="shared" si="54"/>
-        <v>69.5</v>
+        <v>2265</v>
       </c>
       <c r="D456" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F456" s="25" t="str">
         <f t="shared" si="61"/>
@@ -19123,11 +19123,11 @@
       </c>
       <c r="C457" s="26">
         <f t="shared" si="54"/>
-        <v>69.5</v>
+        <v>2268</v>
       </c>
       <c r="D457" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F457" s="25" t="str">
         <f t="shared" si="61"/>
@@ -19161,11 +19161,11 @@
       </c>
       <c r="C458" s="26">
         <f t="shared" si="54"/>
-        <v>69.5</v>
+        <v>2271</v>
       </c>
       <c r="D458" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F458" s="25" t="str">
         <f t="shared" si="61"/>
@@ -19199,11 +19199,11 @@
       </c>
       <c r="C459" s="26">
         <f t="shared" si="54"/>
-        <v>69.5</v>
+        <v>2274</v>
       </c>
       <c r="D459" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F459" s="25" t="str">
         <f t="shared" si="61"/>
@@ -19237,11 +19237,11 @@
       </c>
       <c r="C460" s="26">
         <f t="shared" si="54"/>
-        <v>69.5</v>
+        <v>2277</v>
       </c>
       <c r="D460" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F460" s="25" t="str">
         <f t="shared" si="61"/>
@@ -19275,11 +19275,11 @@
       </c>
       <c r="C461" s="26">
         <f t="shared" si="54"/>
-        <v>71</v>
+        <v>2300</v>
       </c>
       <c r="D461" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F461" s="25" t="str">
         <f t="shared" si="61"/>
@@ -19313,11 +19313,11 @@
       </c>
       <c r="C462" s="26">
         <f t="shared" si="54"/>
-        <v>71</v>
+        <v>2303</v>
       </c>
       <c r="D462" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F462" s="25" t="str">
         <f t="shared" si="61"/>
@@ -19351,11 +19351,11 @@
       </c>
       <c r="C463" s="26">
         <f t="shared" si="54"/>
-        <v>71</v>
+        <v>2306</v>
       </c>
       <c r="D463" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F463" s="25" t="str">
         <f t="shared" si="61"/>
@@ -19389,11 +19389,11 @@
       </c>
       <c r="C464" s="26">
         <f t="shared" si="54"/>
-        <v>71</v>
+        <v>2309</v>
       </c>
       <c r="D464" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F464" s="25" t="str">
         <f t="shared" si="61"/>
@@ -19427,11 +19427,11 @@
       </c>
       <c r="C465" s="26">
         <f t="shared" si="54"/>
-        <v>71</v>
+        <v>2312</v>
       </c>
       <c r="D465" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F465" s="25" t="str">
         <f t="shared" si="61"/>
@@ -19465,11 +19465,11 @@
       </c>
       <c r="C466" s="26">
         <f t="shared" si="54"/>
-        <v>71</v>
+        <v>2315</v>
       </c>
       <c r="D466" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F466" s="25" t="str">
         <f t="shared" si="61"/>
@@ -19503,11 +19503,11 @@
       </c>
       <c r="C467" s="26">
         <f t="shared" si="54"/>
-        <v>71</v>
+        <v>2318</v>
       </c>
       <c r="D467" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F467" s="25" t="str">
         <f t="shared" si="61"/>
@@ -19541,11 +19541,11 @@
       </c>
       <c r="C468" s="26">
         <f t="shared" si="54"/>
-        <v>71</v>
+        <v>2321</v>
       </c>
       <c r="D468" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F468" s="25" t="str">
         <f t="shared" si="61"/>
@@ -19579,11 +19579,11 @@
       </c>
       <c r="C469" s="26">
         <f t="shared" ref="C469:C520" si="63">IFERROR(IF($B469=1,$E$15,IF($M$15=FALSE,$C468+((QUOTIENT($B469-1,$I$15)*$F$15)+(QUOTIENT($B469-1,$J$15)*$H$15)),$E$15+((QUOTIENT($B469-1,$I$15)*$F$15)+(QUOTIENT($B469-1,$J$15)*$H$15)))),"")</f>
-        <v>71</v>
+        <v>2324</v>
       </c>
       <c r="D469" s="27">
         <f t="shared" si="60"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F469" s="25" t="str">
         <f t="shared" si="61"/>
@@ -19617,11 +19617,11 @@
       </c>
       <c r="C470" s="26">
         <f t="shared" si="63"/>
-        <v>71</v>
+        <v>2327</v>
       </c>
       <c r="D470" s="27">
         <f t="shared" ref="D470:D520" si="69">IF($C470=$A$1,"",(IF(OR($B$15=3,$B$15=10),IF($C470&lt;=$K$15,$K$15,$C470),IF($C470&gt;=$K$15,$K$15,$C470))))</f>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F470" s="25" t="str">
         <f t="shared" si="61"/>
@@ -19655,11 +19655,11 @@
       </c>
       <c r="C471" s="26">
         <f t="shared" si="63"/>
-        <v>72.5</v>
+        <v>2350</v>
       </c>
       <c r="D471" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F471" s="25" t="str">
         <f t="shared" ref="F471:F520" si="70">IF($F$20="AtkUG",IF($F470&gt;=$J$11,"",$F470+1),$F470+1)</f>
@@ -19693,11 +19693,11 @@
       </c>
       <c r="C472" s="26">
         <f t="shared" si="63"/>
-        <v>72.5</v>
+        <v>2353</v>
       </c>
       <c r="D472" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F472" s="25" t="str">
         <f t="shared" si="70"/>
@@ -19731,11 +19731,11 @@
       </c>
       <c r="C473" s="26">
         <f t="shared" si="63"/>
-        <v>72.5</v>
+        <v>2356</v>
       </c>
       <c r="D473" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F473" s="25" t="str">
         <f t="shared" si="70"/>
@@ -19769,11 +19769,11 @@
       </c>
       <c r="C474" s="26">
         <f t="shared" si="63"/>
-        <v>72.5</v>
+        <v>2359</v>
       </c>
       <c r="D474" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F474" s="25" t="str">
         <f t="shared" si="70"/>
@@ -19807,11 +19807,11 @@
       </c>
       <c r="C475" s="26">
         <f t="shared" si="63"/>
-        <v>72.5</v>
+        <v>2362</v>
       </c>
       <c r="D475" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F475" s="25" t="str">
         <f t="shared" si="70"/>
@@ -19845,11 +19845,11 @@
       </c>
       <c r="C476" s="26">
         <f t="shared" si="63"/>
-        <v>72.5</v>
+        <v>2365</v>
       </c>
       <c r="D476" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F476" s="25" t="str">
         <f t="shared" si="70"/>
@@ -19883,11 +19883,11 @@
       </c>
       <c r="C477" s="26">
         <f t="shared" si="63"/>
-        <v>72.5</v>
+        <v>2368</v>
       </c>
       <c r="D477" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F477" s="25" t="str">
         <f t="shared" si="70"/>
@@ -19921,11 +19921,11 @@
       </c>
       <c r="C478" s="26">
         <f t="shared" si="63"/>
-        <v>72.5</v>
+        <v>2371</v>
       </c>
       <c r="D478" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F478" s="25" t="str">
         <f t="shared" si="70"/>
@@ -19959,11 +19959,11 @@
       </c>
       <c r="C479" s="26">
         <f t="shared" si="63"/>
-        <v>72.5</v>
+        <v>2374</v>
       </c>
       <c r="D479" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F479" s="25" t="str">
         <f t="shared" si="70"/>
@@ -19997,11 +19997,11 @@
       </c>
       <c r="C480" s="26">
         <f t="shared" si="63"/>
-        <v>72.5</v>
+        <v>2377</v>
       </c>
       <c r="D480" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F480" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20035,11 +20035,11 @@
       </c>
       <c r="C481" s="26">
         <f t="shared" si="63"/>
-        <v>74</v>
+        <v>2400</v>
       </c>
       <c r="D481" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F481" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20073,11 +20073,11 @@
       </c>
       <c r="C482" s="26">
         <f t="shared" si="63"/>
-        <v>74</v>
+        <v>2403</v>
       </c>
       <c r="D482" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F482" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20111,11 +20111,11 @@
       </c>
       <c r="C483" s="26">
         <f t="shared" si="63"/>
-        <v>74</v>
+        <v>2406</v>
       </c>
       <c r="D483" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F483" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20149,11 +20149,11 @@
       </c>
       <c r="C484" s="26">
         <f t="shared" si="63"/>
-        <v>74</v>
+        <v>2409</v>
       </c>
       <c r="D484" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F484" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20187,11 +20187,11 @@
       </c>
       <c r="C485" s="26">
         <f t="shared" si="63"/>
-        <v>74</v>
+        <v>2412</v>
       </c>
       <c r="D485" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F485" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20225,11 +20225,11 @@
       </c>
       <c r="C486" s="26">
         <f t="shared" si="63"/>
-        <v>74</v>
+        <v>2415</v>
       </c>
       <c r="D486" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F486" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20263,11 +20263,11 @@
       </c>
       <c r="C487" s="26">
         <f t="shared" si="63"/>
-        <v>74</v>
+        <v>2418</v>
       </c>
       <c r="D487" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F487" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20301,11 +20301,11 @@
       </c>
       <c r="C488" s="26">
         <f t="shared" si="63"/>
-        <v>74</v>
+        <v>2421</v>
       </c>
       <c r="D488" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F488" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20339,11 +20339,11 @@
       </c>
       <c r="C489" s="26">
         <f t="shared" si="63"/>
-        <v>74</v>
+        <v>2424</v>
       </c>
       <c r="D489" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F489" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20377,11 +20377,11 @@
       </c>
       <c r="C490" s="26">
         <f t="shared" si="63"/>
-        <v>74</v>
+        <v>2427</v>
       </c>
       <c r="D490" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F490" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20415,11 +20415,11 @@
       </c>
       <c r="C491" s="26">
         <f t="shared" si="63"/>
-        <v>75.5</v>
+        <v>2450</v>
       </c>
       <c r="D491" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F491" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20453,11 +20453,11 @@
       </c>
       <c r="C492" s="26">
         <f t="shared" si="63"/>
-        <v>75.5</v>
+        <v>2453</v>
       </c>
       <c r="D492" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F492" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20491,11 +20491,11 @@
       </c>
       <c r="C493" s="26">
         <f t="shared" si="63"/>
-        <v>75.5</v>
+        <v>2456</v>
       </c>
       <c r="D493" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F493" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20529,11 +20529,11 @@
       </c>
       <c r="C494" s="26">
         <f t="shared" si="63"/>
-        <v>75.5</v>
+        <v>2459</v>
       </c>
       <c r="D494" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F494" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20567,11 +20567,11 @@
       </c>
       <c r="C495" s="26">
         <f t="shared" si="63"/>
-        <v>75.5</v>
+        <v>2462</v>
       </c>
       <c r="D495" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F495" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20605,11 +20605,11 @@
       </c>
       <c r="C496" s="26">
         <f t="shared" si="63"/>
-        <v>75.5</v>
+        <v>2465</v>
       </c>
       <c r="D496" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F496" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20643,11 +20643,11 @@
       </c>
       <c r="C497" s="26">
         <f t="shared" si="63"/>
-        <v>75.5</v>
+        <v>2468</v>
       </c>
       <c r="D497" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F497" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20681,11 +20681,11 @@
       </c>
       <c r="C498" s="26">
         <f t="shared" si="63"/>
-        <v>75.5</v>
+        <v>2471</v>
       </c>
       <c r="D498" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F498" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20719,11 +20719,11 @@
       </c>
       <c r="C499" s="26">
         <f t="shared" si="63"/>
-        <v>75.5</v>
+        <v>2474</v>
       </c>
       <c r="D499" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F499" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20757,11 +20757,11 @@
       </c>
       <c r="C500" s="26">
         <f t="shared" si="63"/>
-        <v>75.5</v>
+        <v>2477</v>
       </c>
       <c r="D500" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F500" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20795,11 +20795,11 @@
       </c>
       <c r="C501" s="26">
         <f t="shared" si="63"/>
-        <v>77</v>
+        <v>2500</v>
       </c>
       <c r="D501" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F501" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20833,11 +20833,11 @@
       </c>
       <c r="C502" s="26">
         <f t="shared" si="63"/>
-        <v>77</v>
+        <v>2503</v>
       </c>
       <c r="D502" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F502" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20871,11 +20871,11 @@
       </c>
       <c r="C503" s="26">
         <f t="shared" si="63"/>
-        <v>77</v>
+        <v>2506</v>
       </c>
       <c r="D503" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F503" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20909,11 +20909,11 @@
       </c>
       <c r="C504" s="26">
         <f t="shared" si="63"/>
-        <v>77</v>
+        <v>2509</v>
       </c>
       <c r="D504" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F504" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20947,11 +20947,11 @@
       </c>
       <c r="C505" s="26">
         <f t="shared" si="63"/>
-        <v>77</v>
+        <v>2512</v>
       </c>
       <c r="D505" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F505" s="25" t="str">
         <f t="shared" si="70"/>
@@ -20985,11 +20985,11 @@
       </c>
       <c r="C506" s="26">
         <f t="shared" si="63"/>
-        <v>77</v>
+        <v>2515</v>
       </c>
       <c r="D506" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F506" s="25" t="str">
         <f t="shared" si="70"/>
@@ -21023,11 +21023,11 @@
       </c>
       <c r="C507" s="26">
         <f t="shared" si="63"/>
-        <v>77</v>
+        <v>2518</v>
       </c>
       <c r="D507" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F507" s="25" t="str">
         <f t="shared" si="70"/>
@@ -21061,11 +21061,11 @@
       </c>
       <c r="C508" s="26">
         <f t="shared" si="63"/>
-        <v>77</v>
+        <v>2521</v>
       </c>
       <c r="D508" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F508" s="25" t="str">
         <f t="shared" si="70"/>
@@ -21099,11 +21099,11 @@
       </c>
       <c r="C509" s="26">
         <f t="shared" si="63"/>
-        <v>77</v>
+        <v>2524</v>
       </c>
       <c r="D509" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F509" s="25" t="str">
         <f t="shared" si="70"/>
@@ -21137,11 +21137,11 @@
       </c>
       <c r="C510" s="26">
         <f t="shared" si="63"/>
-        <v>77</v>
+        <v>2527</v>
       </c>
       <c r="D510" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F510" s="25" t="str">
         <f t="shared" si="70"/>
@@ -21175,11 +21175,11 @@
       </c>
       <c r="C511" s="26">
         <f t="shared" si="63"/>
-        <v>78.5</v>
+        <v>2550</v>
       </c>
       <c r="D511" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F511" s="25" t="str">
         <f t="shared" si="70"/>
@@ -21213,11 +21213,11 @@
       </c>
       <c r="C512" s="26">
         <f t="shared" si="63"/>
-        <v>78.5</v>
+        <v>2553</v>
       </c>
       <c r="D512" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F512" s="25" t="str">
         <f t="shared" si="70"/>
@@ -21251,11 +21251,11 @@
       </c>
       <c r="C513" s="26">
         <f t="shared" si="63"/>
-        <v>78.5</v>
+        <v>2556</v>
       </c>
       <c r="D513" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F513" s="25" t="str">
         <f t="shared" si="70"/>
@@ -21289,11 +21289,11 @@
       </c>
       <c r="C514" s="26">
         <f t="shared" si="63"/>
-        <v>78.5</v>
+        <v>2559</v>
       </c>
       <c r="D514" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F514" s="25" t="str">
         <f t="shared" si="70"/>
@@ -21327,11 +21327,11 @@
       </c>
       <c r="C515" s="26">
         <f t="shared" si="63"/>
-        <v>78.5</v>
+        <v>2562</v>
       </c>
       <c r="D515" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F515" s="25" t="str">
         <f t="shared" si="70"/>
@@ -21365,11 +21365,11 @@
       </c>
       <c r="C516" s="26">
         <f t="shared" si="63"/>
-        <v>78.5</v>
+        <v>2565</v>
       </c>
       <c r="D516" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F516" s="25" t="str">
         <f t="shared" si="70"/>
@@ -21403,11 +21403,11 @@
       </c>
       <c r="C517" s="26">
         <f t="shared" si="63"/>
-        <v>78.5</v>
+        <v>2568</v>
       </c>
       <c r="D517" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F517" s="25" t="str">
         <f t="shared" si="70"/>
@@ -21441,11 +21441,11 @@
       </c>
       <c r="C518" s="26">
         <f t="shared" si="63"/>
-        <v>78.5</v>
+        <v>2571</v>
       </c>
       <c r="D518" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F518" s="25" t="str">
         <f t="shared" si="70"/>
@@ -21479,11 +21479,11 @@
       </c>
       <c r="C519" s="26">
         <f t="shared" si="63"/>
-        <v>78.5</v>
+        <v>2574</v>
       </c>
       <c r="D519" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F519" s="25" t="str">
         <f t="shared" si="70"/>
@@ -21517,11 +21517,11 @@
       </c>
       <c r="C520" s="26">
         <f t="shared" si="63"/>
-        <v>78.5</v>
+        <v>2577</v>
       </c>
       <c r="D520" s="27">
         <f t="shared" si="69"/>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="F520" s="25" t="str">
         <f t="shared" si="70"/>
